--- a/app/routes/uploads/SEC1_StaffTraining.xlsx
+++ b/app/routes/uploads/SEC1_StaffTraining.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AH123"/>
+  <dimension ref="A2:AH223"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="str">
@@ -10887,6 +10887,8906 @@
         <v>x</v>
       </c>
       <c r="AD123" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="str">
+        <v>x</v>
+      </c>
+      <c r="C124" t="str">
+        <v>x</v>
+      </c>
+      <c r="D124" t="str">
+        <v>x</v>
+      </c>
+      <c r="E124" t="str">
+        <v>x</v>
+      </c>
+      <c r="F124" t="str">
+        <v>x</v>
+      </c>
+      <c r="G124" t="str">
+        <v>x</v>
+      </c>
+      <c r="H124" t="str">
+        <v>x</v>
+      </c>
+      <c r="I124" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J124" t="str">
+        <v>x</v>
+      </c>
+      <c r="K124" t="str">
+        <v>x</v>
+      </c>
+      <c r="L124" t="str">
+        <v>x</v>
+      </c>
+      <c r="M124" t="str">
+        <v>x</v>
+      </c>
+      <c r="N124" t="str">
+        <v>x</v>
+      </c>
+      <c r="O124" t="str">
+        <v>x</v>
+      </c>
+      <c r="P124" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>x</v>
+      </c>
+      <c r="R124" t="str">
+        <v>x</v>
+      </c>
+      <c r="S124" t="str">
+        <v>x</v>
+      </c>
+      <c r="T124" t="str">
+        <v>x</v>
+      </c>
+      <c r="U124" t="str">
+        <v>x</v>
+      </c>
+      <c r="V124" t="str">
+        <v>x</v>
+      </c>
+      <c r="W124" t="str">
+        <v>x</v>
+      </c>
+      <c r="X124" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y124" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z124" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA124" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB124" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC124" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD124" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="str">
+        <v>x</v>
+      </c>
+      <c r="C125" t="str">
+        <v>x</v>
+      </c>
+      <c r="D125" t="str">
+        <v>x</v>
+      </c>
+      <c r="E125" t="str">
+        <v>x</v>
+      </c>
+      <c r="F125" t="str">
+        <v>x</v>
+      </c>
+      <c r="G125" t="str">
+        <v>x</v>
+      </c>
+      <c r="H125" t="str">
+        <v>x</v>
+      </c>
+      <c r="I125" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J125" t="str">
+        <v>x</v>
+      </c>
+      <c r="K125" t="str">
+        <v>x</v>
+      </c>
+      <c r="L125" t="str">
+        <v>x</v>
+      </c>
+      <c r="M125" t="str">
+        <v>x</v>
+      </c>
+      <c r="N125" t="str">
+        <v>x</v>
+      </c>
+      <c r="O125" t="str">
+        <v>x</v>
+      </c>
+      <c r="P125" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>x</v>
+      </c>
+      <c r="R125" t="str">
+        <v>x</v>
+      </c>
+      <c r="S125" t="str">
+        <v>x</v>
+      </c>
+      <c r="T125" t="str">
+        <v>x</v>
+      </c>
+      <c r="U125" t="str">
+        <v>x</v>
+      </c>
+      <c r="V125" t="str">
+        <v>x</v>
+      </c>
+      <c r="W125" t="str">
+        <v>x</v>
+      </c>
+      <c r="X125" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y125" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z125" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA125" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB125" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC125" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD125" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="str">
+        <v>x</v>
+      </c>
+      <c r="C126" t="str">
+        <v>x</v>
+      </c>
+      <c r="D126" t="str">
+        <v>x</v>
+      </c>
+      <c r="E126" t="str">
+        <v>x</v>
+      </c>
+      <c r="F126" t="str">
+        <v>x</v>
+      </c>
+      <c r="G126" t="str">
+        <v>x</v>
+      </c>
+      <c r="H126" t="str">
+        <v>x</v>
+      </c>
+      <c r="I126" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J126" t="str">
+        <v>x</v>
+      </c>
+      <c r="K126" t="str">
+        <v>x</v>
+      </c>
+      <c r="L126" t="str">
+        <v>x</v>
+      </c>
+      <c r="M126" t="str">
+        <v>x</v>
+      </c>
+      <c r="N126" t="str">
+        <v>x</v>
+      </c>
+      <c r="O126" t="str">
+        <v>x</v>
+      </c>
+      <c r="P126" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>x</v>
+      </c>
+      <c r="R126" t="str">
+        <v>x</v>
+      </c>
+      <c r="S126" t="str">
+        <v>x</v>
+      </c>
+      <c r="T126" t="str">
+        <v>x</v>
+      </c>
+      <c r="U126" t="str">
+        <v>x</v>
+      </c>
+      <c r="V126" t="str">
+        <v>x</v>
+      </c>
+      <c r="W126" t="str">
+        <v>x</v>
+      </c>
+      <c r="X126" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y126" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z126" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA126" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB126" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC126" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD126" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="str">
+        <v>x</v>
+      </c>
+      <c r="C127" t="str">
+        <v>x</v>
+      </c>
+      <c r="D127" t="str">
+        <v>x</v>
+      </c>
+      <c r="E127" t="str">
+        <v>x</v>
+      </c>
+      <c r="F127" t="str">
+        <v>x</v>
+      </c>
+      <c r="G127" t="str">
+        <v>x</v>
+      </c>
+      <c r="H127" t="str">
+        <v>x</v>
+      </c>
+      <c r="I127" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J127" t="str">
+        <v>x</v>
+      </c>
+      <c r="K127" t="str">
+        <v>x</v>
+      </c>
+      <c r="L127" t="str">
+        <v>x</v>
+      </c>
+      <c r="M127" t="str">
+        <v>x</v>
+      </c>
+      <c r="N127" t="str">
+        <v>x</v>
+      </c>
+      <c r="O127" t="str">
+        <v>x</v>
+      </c>
+      <c r="P127" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q127" t="str">
+        <v>x</v>
+      </c>
+      <c r="R127" t="str">
+        <v>x</v>
+      </c>
+      <c r="S127" t="str">
+        <v>x</v>
+      </c>
+      <c r="T127" t="str">
+        <v>x</v>
+      </c>
+      <c r="U127" t="str">
+        <v>x</v>
+      </c>
+      <c r="V127" t="str">
+        <v>x</v>
+      </c>
+      <c r="W127" t="str">
+        <v>x</v>
+      </c>
+      <c r="X127" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y127" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z127" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA127" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB127" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC127" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD127" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="str">
+        <v>x</v>
+      </c>
+      <c r="C128" t="str">
+        <v>x</v>
+      </c>
+      <c r="D128" t="str">
+        <v>x</v>
+      </c>
+      <c r="E128" t="str">
+        <v>x</v>
+      </c>
+      <c r="F128" t="str">
+        <v>x</v>
+      </c>
+      <c r="G128" t="str">
+        <v>x</v>
+      </c>
+      <c r="H128" t="str">
+        <v>x</v>
+      </c>
+      <c r="I128" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J128" t="str">
+        <v>x</v>
+      </c>
+      <c r="K128" t="str">
+        <v>x</v>
+      </c>
+      <c r="L128" t="str">
+        <v>x</v>
+      </c>
+      <c r="M128" t="str">
+        <v>x</v>
+      </c>
+      <c r="N128" t="str">
+        <v>x</v>
+      </c>
+      <c r="O128" t="str">
+        <v>x</v>
+      </c>
+      <c r="P128" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>x</v>
+      </c>
+      <c r="R128" t="str">
+        <v>x</v>
+      </c>
+      <c r="S128" t="str">
+        <v>x</v>
+      </c>
+      <c r="T128" t="str">
+        <v>x</v>
+      </c>
+      <c r="U128" t="str">
+        <v>x</v>
+      </c>
+      <c r="V128" t="str">
+        <v>x</v>
+      </c>
+      <c r="W128" t="str">
+        <v>x</v>
+      </c>
+      <c r="X128" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y128" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z128" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA128" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB128" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC128" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD128" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="str">
+        <v>x</v>
+      </c>
+      <c r="C129" t="str">
+        <v>x</v>
+      </c>
+      <c r="D129" t="str">
+        <v>x</v>
+      </c>
+      <c r="E129" t="str">
+        <v>x</v>
+      </c>
+      <c r="F129" t="str">
+        <v>x</v>
+      </c>
+      <c r="G129" t="str">
+        <v>x</v>
+      </c>
+      <c r="H129" t="str">
+        <v>x</v>
+      </c>
+      <c r="I129" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J129" t="str">
+        <v>x</v>
+      </c>
+      <c r="K129" t="str">
+        <v>x</v>
+      </c>
+      <c r="L129" t="str">
+        <v>x</v>
+      </c>
+      <c r="M129" t="str">
+        <v>x</v>
+      </c>
+      <c r="N129" t="str">
+        <v>x</v>
+      </c>
+      <c r="O129" t="str">
+        <v>x</v>
+      </c>
+      <c r="P129" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q129" t="str">
+        <v>x</v>
+      </c>
+      <c r="R129" t="str">
+        <v>x</v>
+      </c>
+      <c r="S129" t="str">
+        <v>x</v>
+      </c>
+      <c r="T129" t="str">
+        <v>x</v>
+      </c>
+      <c r="U129" t="str">
+        <v>x</v>
+      </c>
+      <c r="V129" t="str">
+        <v>x</v>
+      </c>
+      <c r="W129" t="str">
+        <v>x</v>
+      </c>
+      <c r="X129" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y129" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z129" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA129" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB129" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC129" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD129" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="str">
+        <v>x</v>
+      </c>
+      <c r="C130" t="str">
+        <v>x</v>
+      </c>
+      <c r="D130" t="str">
+        <v>x</v>
+      </c>
+      <c r="E130" t="str">
+        <v>x</v>
+      </c>
+      <c r="F130" t="str">
+        <v>x</v>
+      </c>
+      <c r="G130" t="str">
+        <v>x</v>
+      </c>
+      <c r="H130" t="str">
+        <v>x</v>
+      </c>
+      <c r="I130" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J130" t="str">
+        <v>x</v>
+      </c>
+      <c r="K130" t="str">
+        <v>x</v>
+      </c>
+      <c r="L130" t="str">
+        <v>x</v>
+      </c>
+      <c r="M130" t="str">
+        <v>x</v>
+      </c>
+      <c r="N130" t="str">
+        <v>x</v>
+      </c>
+      <c r="O130" t="str">
+        <v>x</v>
+      </c>
+      <c r="P130" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q130" t="str">
+        <v>x</v>
+      </c>
+      <c r="R130" t="str">
+        <v>x</v>
+      </c>
+      <c r="S130" t="str">
+        <v>x</v>
+      </c>
+      <c r="T130" t="str">
+        <v>x</v>
+      </c>
+      <c r="U130" t="str">
+        <v>x</v>
+      </c>
+      <c r="V130" t="str">
+        <v>x</v>
+      </c>
+      <c r="W130" t="str">
+        <v>x</v>
+      </c>
+      <c r="X130" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y130" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z130" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA130" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB130" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC130" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD130" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="str">
+        <v>x</v>
+      </c>
+      <c r="C131" t="str">
+        <v>x</v>
+      </c>
+      <c r="D131" t="str">
+        <v>x</v>
+      </c>
+      <c r="E131" t="str">
+        <v>x</v>
+      </c>
+      <c r="F131" t="str">
+        <v>x</v>
+      </c>
+      <c r="G131" t="str">
+        <v>x</v>
+      </c>
+      <c r="H131" t="str">
+        <v>x</v>
+      </c>
+      <c r="I131" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J131" t="str">
+        <v>x</v>
+      </c>
+      <c r="K131" t="str">
+        <v>x</v>
+      </c>
+      <c r="L131" t="str">
+        <v>x</v>
+      </c>
+      <c r="M131" t="str">
+        <v>x</v>
+      </c>
+      <c r="N131" t="str">
+        <v>x</v>
+      </c>
+      <c r="O131" t="str">
+        <v>x</v>
+      </c>
+      <c r="P131" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>x</v>
+      </c>
+      <c r="R131" t="str">
+        <v>x</v>
+      </c>
+      <c r="S131" t="str">
+        <v>x</v>
+      </c>
+      <c r="T131" t="str">
+        <v>x</v>
+      </c>
+      <c r="U131" t="str">
+        <v>x</v>
+      </c>
+      <c r="V131" t="str">
+        <v>x</v>
+      </c>
+      <c r="W131" t="str">
+        <v>x</v>
+      </c>
+      <c r="X131" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y131" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z131" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA131" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB131" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC131" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD131" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="str">
+        <v>x</v>
+      </c>
+      <c r="C132" t="str">
+        <v>x</v>
+      </c>
+      <c r="D132" t="str">
+        <v>x</v>
+      </c>
+      <c r="E132" t="str">
+        <v>x</v>
+      </c>
+      <c r="F132" t="str">
+        <v>x</v>
+      </c>
+      <c r="G132" t="str">
+        <v>x</v>
+      </c>
+      <c r="H132" t="str">
+        <v>x</v>
+      </c>
+      <c r="I132" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J132" t="str">
+        <v>x</v>
+      </c>
+      <c r="K132" t="str">
+        <v>x</v>
+      </c>
+      <c r="L132" t="str">
+        <v>x</v>
+      </c>
+      <c r="M132" t="str">
+        <v>x</v>
+      </c>
+      <c r="N132" t="str">
+        <v>x</v>
+      </c>
+      <c r="O132" t="str">
+        <v>x</v>
+      </c>
+      <c r="P132" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q132" t="str">
+        <v>x</v>
+      </c>
+      <c r="R132" t="str">
+        <v>x</v>
+      </c>
+      <c r="S132" t="str">
+        <v>x</v>
+      </c>
+      <c r="T132" t="str">
+        <v>x</v>
+      </c>
+      <c r="U132" t="str">
+        <v>x</v>
+      </c>
+      <c r="V132" t="str">
+        <v>x</v>
+      </c>
+      <c r="W132" t="str">
+        <v>x</v>
+      </c>
+      <c r="X132" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y132" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z132" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA132" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB132" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC132" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD132" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="str">
+        <v>x</v>
+      </c>
+      <c r="C133" t="str">
+        <v>x</v>
+      </c>
+      <c r="D133" t="str">
+        <v>x</v>
+      </c>
+      <c r="E133" t="str">
+        <v>x</v>
+      </c>
+      <c r="F133" t="str">
+        <v>x</v>
+      </c>
+      <c r="G133" t="str">
+        <v>x</v>
+      </c>
+      <c r="H133" t="str">
+        <v>x</v>
+      </c>
+      <c r="I133" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J133" t="str">
+        <v>x</v>
+      </c>
+      <c r="K133" t="str">
+        <v>x</v>
+      </c>
+      <c r="L133" t="str">
+        <v>x</v>
+      </c>
+      <c r="M133" t="str">
+        <v>x</v>
+      </c>
+      <c r="N133" t="str">
+        <v>x</v>
+      </c>
+      <c r="O133" t="str">
+        <v>x</v>
+      </c>
+      <c r="P133" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q133" t="str">
+        <v>x</v>
+      </c>
+      <c r="R133" t="str">
+        <v>x</v>
+      </c>
+      <c r="S133" t="str">
+        <v>x</v>
+      </c>
+      <c r="T133" t="str">
+        <v>x</v>
+      </c>
+      <c r="U133" t="str">
+        <v>x</v>
+      </c>
+      <c r="V133" t="str">
+        <v>x</v>
+      </c>
+      <c r="W133" t="str">
+        <v>x</v>
+      </c>
+      <c r="X133" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y133" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z133" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA133" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB133" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC133" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD133" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="str">
+        <v>x</v>
+      </c>
+      <c r="C134" t="str">
+        <v>x</v>
+      </c>
+      <c r="D134" t="str">
+        <v>x</v>
+      </c>
+      <c r="E134" t="str">
+        <v>x</v>
+      </c>
+      <c r="F134" t="str">
+        <v>x</v>
+      </c>
+      <c r="G134" t="str">
+        <v>x</v>
+      </c>
+      <c r="H134" t="str">
+        <v>x</v>
+      </c>
+      <c r="I134" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J134" t="str">
+        <v>x</v>
+      </c>
+      <c r="K134" t="str">
+        <v>x</v>
+      </c>
+      <c r="L134" t="str">
+        <v>x</v>
+      </c>
+      <c r="M134" t="str">
+        <v>x</v>
+      </c>
+      <c r="N134" t="str">
+        <v>x</v>
+      </c>
+      <c r="O134" t="str">
+        <v>x</v>
+      </c>
+      <c r="P134" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>x</v>
+      </c>
+      <c r="R134" t="str">
+        <v>x</v>
+      </c>
+      <c r="S134" t="str">
+        <v>x</v>
+      </c>
+      <c r="T134" t="str">
+        <v>x</v>
+      </c>
+      <c r="U134" t="str">
+        <v>x</v>
+      </c>
+      <c r="V134" t="str">
+        <v>x</v>
+      </c>
+      <c r="W134" t="str">
+        <v>x</v>
+      </c>
+      <c r="X134" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y134" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z134" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA134" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB134" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC134" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD134" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="str">
+        <v>x</v>
+      </c>
+      <c r="C135" t="str">
+        <v>x</v>
+      </c>
+      <c r="D135" t="str">
+        <v>x</v>
+      </c>
+      <c r="E135" t="str">
+        <v>x</v>
+      </c>
+      <c r="F135" t="str">
+        <v>x</v>
+      </c>
+      <c r="G135" t="str">
+        <v>x</v>
+      </c>
+      <c r="H135" t="str">
+        <v>x</v>
+      </c>
+      <c r="I135" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J135" t="str">
+        <v>x</v>
+      </c>
+      <c r="K135" t="str">
+        <v>x</v>
+      </c>
+      <c r="L135" t="str">
+        <v>x</v>
+      </c>
+      <c r="M135" t="str">
+        <v>x</v>
+      </c>
+      <c r="N135" t="str">
+        <v>x</v>
+      </c>
+      <c r="O135" t="str">
+        <v>x</v>
+      </c>
+      <c r="P135" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q135" t="str">
+        <v>x</v>
+      </c>
+      <c r="R135" t="str">
+        <v>x</v>
+      </c>
+      <c r="S135" t="str">
+        <v>x</v>
+      </c>
+      <c r="T135" t="str">
+        <v>x</v>
+      </c>
+      <c r="U135" t="str">
+        <v>x</v>
+      </c>
+      <c r="V135" t="str">
+        <v>x</v>
+      </c>
+      <c r="W135" t="str">
+        <v>x</v>
+      </c>
+      <c r="X135" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y135" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z135" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA135" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB135" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC135" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD135" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="str">
+        <v>x</v>
+      </c>
+      <c r="C136" t="str">
+        <v>x</v>
+      </c>
+      <c r="D136" t="str">
+        <v>x</v>
+      </c>
+      <c r="E136" t="str">
+        <v>x</v>
+      </c>
+      <c r="F136" t="str">
+        <v>x</v>
+      </c>
+      <c r="G136" t="str">
+        <v>x</v>
+      </c>
+      <c r="H136" t="str">
+        <v>x</v>
+      </c>
+      <c r="I136" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J136" t="str">
+        <v>x</v>
+      </c>
+      <c r="K136" t="str">
+        <v>x</v>
+      </c>
+      <c r="L136" t="str">
+        <v>x</v>
+      </c>
+      <c r="M136" t="str">
+        <v>x</v>
+      </c>
+      <c r="N136" t="str">
+        <v>x</v>
+      </c>
+      <c r="O136" t="str">
+        <v>x</v>
+      </c>
+      <c r="P136" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q136" t="str">
+        <v>x</v>
+      </c>
+      <c r="R136" t="str">
+        <v>x</v>
+      </c>
+      <c r="S136" t="str">
+        <v>x</v>
+      </c>
+      <c r="T136" t="str">
+        <v>x</v>
+      </c>
+      <c r="U136" t="str">
+        <v>x</v>
+      </c>
+      <c r="V136" t="str">
+        <v>x</v>
+      </c>
+      <c r="W136" t="str">
+        <v>x</v>
+      </c>
+      <c r="X136" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y136" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z136" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA136" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB136" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC136" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD136" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="str">
+        <v>x</v>
+      </c>
+      <c r="C137" t="str">
+        <v>x</v>
+      </c>
+      <c r="D137" t="str">
+        <v>x</v>
+      </c>
+      <c r="E137" t="str">
+        <v>x</v>
+      </c>
+      <c r="F137" t="str">
+        <v>x</v>
+      </c>
+      <c r="G137" t="str">
+        <v>x</v>
+      </c>
+      <c r="H137" t="str">
+        <v>x</v>
+      </c>
+      <c r="I137" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J137" t="str">
+        <v>x</v>
+      </c>
+      <c r="K137" t="str">
+        <v>x</v>
+      </c>
+      <c r="L137" t="str">
+        <v>x</v>
+      </c>
+      <c r="M137" t="str">
+        <v>x</v>
+      </c>
+      <c r="N137" t="str">
+        <v>x</v>
+      </c>
+      <c r="O137" t="str">
+        <v>x</v>
+      </c>
+      <c r="P137" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q137" t="str">
+        <v>x</v>
+      </c>
+      <c r="R137" t="str">
+        <v>x</v>
+      </c>
+      <c r="S137" t="str">
+        <v>x</v>
+      </c>
+      <c r="T137" t="str">
+        <v>x</v>
+      </c>
+      <c r="U137" t="str">
+        <v>x</v>
+      </c>
+      <c r="V137" t="str">
+        <v>x</v>
+      </c>
+      <c r="W137" t="str">
+        <v>x</v>
+      </c>
+      <c r="X137" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y137" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z137" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA137" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB137" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC137" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD137" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="str">
+        <v>x</v>
+      </c>
+      <c r="C138" t="str">
+        <v>x</v>
+      </c>
+      <c r="D138" t="str">
+        <v>x</v>
+      </c>
+      <c r="E138" t="str">
+        <v>x</v>
+      </c>
+      <c r="F138" t="str">
+        <v>x</v>
+      </c>
+      <c r="G138" t="str">
+        <v>x</v>
+      </c>
+      <c r="H138" t="str">
+        <v>x</v>
+      </c>
+      <c r="I138" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J138" t="str">
+        <v>x</v>
+      </c>
+      <c r="K138" t="str">
+        <v>x</v>
+      </c>
+      <c r="L138" t="str">
+        <v>x</v>
+      </c>
+      <c r="M138" t="str">
+        <v>x</v>
+      </c>
+      <c r="N138" t="str">
+        <v>x</v>
+      </c>
+      <c r="O138" t="str">
+        <v>x</v>
+      </c>
+      <c r="P138" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q138" t="str">
+        <v>x</v>
+      </c>
+      <c r="R138" t="str">
+        <v>x</v>
+      </c>
+      <c r="S138" t="str">
+        <v>x</v>
+      </c>
+      <c r="T138" t="str">
+        <v>x</v>
+      </c>
+      <c r="U138" t="str">
+        <v>x</v>
+      </c>
+      <c r="V138" t="str">
+        <v>x</v>
+      </c>
+      <c r="W138" t="str">
+        <v>x</v>
+      </c>
+      <c r="X138" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y138" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z138" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA138" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB138" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC138" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD138" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="str">
+        <v>x</v>
+      </c>
+      <c r="C139" t="str">
+        <v>x</v>
+      </c>
+      <c r="D139" t="str">
+        <v>x</v>
+      </c>
+      <c r="E139" t="str">
+        <v>x</v>
+      </c>
+      <c r="F139" t="str">
+        <v>x</v>
+      </c>
+      <c r="G139" t="str">
+        <v>x</v>
+      </c>
+      <c r="H139" t="str">
+        <v>x</v>
+      </c>
+      <c r="I139" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J139" t="str">
+        <v>x</v>
+      </c>
+      <c r="K139" t="str">
+        <v>x</v>
+      </c>
+      <c r="L139" t="str">
+        <v>x</v>
+      </c>
+      <c r="M139" t="str">
+        <v>x</v>
+      </c>
+      <c r="N139" t="str">
+        <v>x</v>
+      </c>
+      <c r="O139" t="str">
+        <v>x</v>
+      </c>
+      <c r="P139" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q139" t="str">
+        <v>x</v>
+      </c>
+      <c r="R139" t="str">
+        <v>x</v>
+      </c>
+      <c r="S139" t="str">
+        <v>x</v>
+      </c>
+      <c r="T139" t="str">
+        <v>x</v>
+      </c>
+      <c r="U139" t="str">
+        <v>x</v>
+      </c>
+      <c r="V139" t="str">
+        <v>x</v>
+      </c>
+      <c r="W139" t="str">
+        <v>x</v>
+      </c>
+      <c r="X139" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y139" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z139" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA139" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB139" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC139" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD139" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="str">
+        <v>x</v>
+      </c>
+      <c r="C140" t="str">
+        <v>x</v>
+      </c>
+      <c r="D140" t="str">
+        <v>x</v>
+      </c>
+      <c r="E140" t="str">
+        <v>x</v>
+      </c>
+      <c r="F140" t="str">
+        <v>x</v>
+      </c>
+      <c r="G140" t="str">
+        <v>x</v>
+      </c>
+      <c r="H140" t="str">
+        <v>x</v>
+      </c>
+      <c r="I140" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J140" t="str">
+        <v>x</v>
+      </c>
+      <c r="K140" t="str">
+        <v>x</v>
+      </c>
+      <c r="L140" t="str">
+        <v>x</v>
+      </c>
+      <c r="M140" t="str">
+        <v>x</v>
+      </c>
+      <c r="N140" t="str">
+        <v>x</v>
+      </c>
+      <c r="O140" t="str">
+        <v>x</v>
+      </c>
+      <c r="P140" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q140" t="str">
+        <v>x</v>
+      </c>
+      <c r="R140" t="str">
+        <v>x</v>
+      </c>
+      <c r="S140" t="str">
+        <v>x</v>
+      </c>
+      <c r="T140" t="str">
+        <v>x</v>
+      </c>
+      <c r="U140" t="str">
+        <v>x</v>
+      </c>
+      <c r="V140" t="str">
+        <v>x</v>
+      </c>
+      <c r="W140" t="str">
+        <v>x</v>
+      </c>
+      <c r="X140" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y140" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z140" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA140" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB140" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC140" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD140" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="str">
+        <v>x</v>
+      </c>
+      <c r="C141" t="str">
+        <v>x</v>
+      </c>
+      <c r="D141" t="str">
+        <v>x</v>
+      </c>
+      <c r="E141" t="str">
+        <v>x</v>
+      </c>
+      <c r="F141" t="str">
+        <v>x</v>
+      </c>
+      <c r="G141" t="str">
+        <v>x</v>
+      </c>
+      <c r="H141" t="str">
+        <v>x</v>
+      </c>
+      <c r="I141" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J141" t="str">
+        <v>x</v>
+      </c>
+      <c r="K141" t="str">
+        <v>x</v>
+      </c>
+      <c r="L141" t="str">
+        <v>x</v>
+      </c>
+      <c r="M141" t="str">
+        <v>x</v>
+      </c>
+      <c r="N141" t="str">
+        <v>x</v>
+      </c>
+      <c r="O141" t="str">
+        <v>x</v>
+      </c>
+      <c r="P141" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q141" t="str">
+        <v>x</v>
+      </c>
+      <c r="R141" t="str">
+        <v>x</v>
+      </c>
+      <c r="S141" t="str">
+        <v>x</v>
+      </c>
+      <c r="T141" t="str">
+        <v>x</v>
+      </c>
+      <c r="U141" t="str">
+        <v>x</v>
+      </c>
+      <c r="V141" t="str">
+        <v>x</v>
+      </c>
+      <c r="W141" t="str">
+        <v>x</v>
+      </c>
+      <c r="X141" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y141" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z141" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA141" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB141" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC141" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD141" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="str">
+        <v>x</v>
+      </c>
+      <c r="C142" t="str">
+        <v>x</v>
+      </c>
+      <c r="D142" t="str">
+        <v>x</v>
+      </c>
+      <c r="E142" t="str">
+        <v>x</v>
+      </c>
+      <c r="F142" t="str">
+        <v>x</v>
+      </c>
+      <c r="G142" t="str">
+        <v>x</v>
+      </c>
+      <c r="H142" t="str">
+        <v>x</v>
+      </c>
+      <c r="I142" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J142" t="str">
+        <v>x</v>
+      </c>
+      <c r="K142" t="str">
+        <v>x</v>
+      </c>
+      <c r="L142" t="str">
+        <v>x</v>
+      </c>
+      <c r="M142" t="str">
+        <v>x</v>
+      </c>
+      <c r="N142" t="str">
+        <v>x</v>
+      </c>
+      <c r="O142" t="str">
+        <v>x</v>
+      </c>
+      <c r="P142" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q142" t="str">
+        <v>x</v>
+      </c>
+      <c r="R142" t="str">
+        <v>x</v>
+      </c>
+      <c r="S142" t="str">
+        <v>x</v>
+      </c>
+      <c r="T142" t="str">
+        <v>x</v>
+      </c>
+      <c r="U142" t="str">
+        <v>x</v>
+      </c>
+      <c r="V142" t="str">
+        <v>x</v>
+      </c>
+      <c r="W142" t="str">
+        <v>x</v>
+      </c>
+      <c r="X142" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y142" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z142" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA142" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB142" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC142" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD142" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="str">
+        <v>x</v>
+      </c>
+      <c r="C143" t="str">
+        <v>x</v>
+      </c>
+      <c r="D143" t="str">
+        <v>x</v>
+      </c>
+      <c r="E143" t="str">
+        <v>x</v>
+      </c>
+      <c r="F143" t="str">
+        <v>x</v>
+      </c>
+      <c r="G143" t="str">
+        <v>x</v>
+      </c>
+      <c r="H143" t="str">
+        <v>x</v>
+      </c>
+      <c r="I143" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J143" t="str">
+        <v>x</v>
+      </c>
+      <c r="K143" t="str">
+        <v>x</v>
+      </c>
+      <c r="L143" t="str">
+        <v>x</v>
+      </c>
+      <c r="M143" t="str">
+        <v>x</v>
+      </c>
+      <c r="N143" t="str">
+        <v>x</v>
+      </c>
+      <c r="O143" t="str">
+        <v>x</v>
+      </c>
+      <c r="P143" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q143" t="str">
+        <v>x</v>
+      </c>
+      <c r="R143" t="str">
+        <v>x</v>
+      </c>
+      <c r="S143" t="str">
+        <v>x</v>
+      </c>
+      <c r="T143" t="str">
+        <v>x</v>
+      </c>
+      <c r="U143" t="str">
+        <v>x</v>
+      </c>
+      <c r="V143" t="str">
+        <v>x</v>
+      </c>
+      <c r="W143" t="str">
+        <v>x</v>
+      </c>
+      <c r="X143" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y143" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z143" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA143" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB143" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC143" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD143" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="str">
+        <v>x</v>
+      </c>
+      <c r="C144" t="str">
+        <v>x</v>
+      </c>
+      <c r="D144" t="str">
+        <v>x</v>
+      </c>
+      <c r="E144" t="str">
+        <v>x</v>
+      </c>
+      <c r="F144" t="str">
+        <v>x</v>
+      </c>
+      <c r="G144" t="str">
+        <v>x</v>
+      </c>
+      <c r="H144" t="str">
+        <v>x</v>
+      </c>
+      <c r="I144" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J144" t="str">
+        <v>x</v>
+      </c>
+      <c r="K144" t="str">
+        <v>x</v>
+      </c>
+      <c r="L144" t="str">
+        <v>x</v>
+      </c>
+      <c r="M144" t="str">
+        <v>x</v>
+      </c>
+      <c r="N144" t="str">
+        <v>x</v>
+      </c>
+      <c r="O144" t="str">
+        <v>x</v>
+      </c>
+      <c r="P144" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q144" t="str">
+        <v>x</v>
+      </c>
+      <c r="R144" t="str">
+        <v>x</v>
+      </c>
+      <c r="S144" t="str">
+        <v>x</v>
+      </c>
+      <c r="T144" t="str">
+        <v>x</v>
+      </c>
+      <c r="U144" t="str">
+        <v>x</v>
+      </c>
+      <c r="V144" t="str">
+        <v>x</v>
+      </c>
+      <c r="W144" t="str">
+        <v>x</v>
+      </c>
+      <c r="X144" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y144" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z144" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA144" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB144" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC144" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD144" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="str">
+        <v>x</v>
+      </c>
+      <c r="C145" t="str">
+        <v>x</v>
+      </c>
+      <c r="D145" t="str">
+        <v>x</v>
+      </c>
+      <c r="E145" t="str">
+        <v>x</v>
+      </c>
+      <c r="F145" t="str">
+        <v>x</v>
+      </c>
+      <c r="G145" t="str">
+        <v>x</v>
+      </c>
+      <c r="H145" t="str">
+        <v>x</v>
+      </c>
+      <c r="I145" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J145" t="str">
+        <v>x</v>
+      </c>
+      <c r="K145" t="str">
+        <v>x</v>
+      </c>
+      <c r="L145" t="str">
+        <v>x</v>
+      </c>
+      <c r="M145" t="str">
+        <v>x</v>
+      </c>
+      <c r="N145" t="str">
+        <v>x</v>
+      </c>
+      <c r="O145" t="str">
+        <v>x</v>
+      </c>
+      <c r="P145" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q145" t="str">
+        <v>x</v>
+      </c>
+      <c r="R145" t="str">
+        <v>x</v>
+      </c>
+      <c r="S145" t="str">
+        <v>x</v>
+      </c>
+      <c r="T145" t="str">
+        <v>x</v>
+      </c>
+      <c r="U145" t="str">
+        <v>x</v>
+      </c>
+      <c r="V145" t="str">
+        <v>x</v>
+      </c>
+      <c r="W145" t="str">
+        <v>x</v>
+      </c>
+      <c r="X145" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y145" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z145" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA145" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB145" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC145" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD145" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="str">
+        <v>x</v>
+      </c>
+      <c r="C146" t="str">
+        <v>x</v>
+      </c>
+      <c r="D146" t="str">
+        <v>x</v>
+      </c>
+      <c r="E146" t="str">
+        <v>x</v>
+      </c>
+      <c r="F146" t="str">
+        <v>x</v>
+      </c>
+      <c r="G146" t="str">
+        <v>x</v>
+      </c>
+      <c r="H146" t="str">
+        <v>x</v>
+      </c>
+      <c r="I146" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J146" t="str">
+        <v>x</v>
+      </c>
+      <c r="K146" t="str">
+        <v>x</v>
+      </c>
+      <c r="L146" t="str">
+        <v>x</v>
+      </c>
+      <c r="M146" t="str">
+        <v>x</v>
+      </c>
+      <c r="N146" t="str">
+        <v>x</v>
+      </c>
+      <c r="O146" t="str">
+        <v>x</v>
+      </c>
+      <c r="P146" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q146" t="str">
+        <v>x</v>
+      </c>
+      <c r="R146" t="str">
+        <v>x</v>
+      </c>
+      <c r="S146" t="str">
+        <v>x</v>
+      </c>
+      <c r="T146" t="str">
+        <v>x</v>
+      </c>
+      <c r="U146" t="str">
+        <v>x</v>
+      </c>
+      <c r="V146" t="str">
+        <v>x</v>
+      </c>
+      <c r="W146" t="str">
+        <v>x</v>
+      </c>
+      <c r="X146" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y146" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z146" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA146" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB146" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC146" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD146" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="str">
+        <v>x</v>
+      </c>
+      <c r="C147" t="str">
+        <v>x</v>
+      </c>
+      <c r="D147" t="str">
+        <v>x</v>
+      </c>
+      <c r="E147" t="str">
+        <v>x</v>
+      </c>
+      <c r="F147" t="str">
+        <v>x</v>
+      </c>
+      <c r="G147" t="str">
+        <v>x</v>
+      </c>
+      <c r="H147" t="str">
+        <v>x</v>
+      </c>
+      <c r="I147" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J147" t="str">
+        <v>x</v>
+      </c>
+      <c r="K147" t="str">
+        <v>x</v>
+      </c>
+      <c r="L147" t="str">
+        <v>x</v>
+      </c>
+      <c r="M147" t="str">
+        <v>x</v>
+      </c>
+      <c r="N147" t="str">
+        <v>x</v>
+      </c>
+      <c r="O147" t="str">
+        <v>x</v>
+      </c>
+      <c r="P147" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q147" t="str">
+        <v>x</v>
+      </c>
+      <c r="R147" t="str">
+        <v>x</v>
+      </c>
+      <c r="S147" t="str">
+        <v>x</v>
+      </c>
+      <c r="T147" t="str">
+        <v>x</v>
+      </c>
+      <c r="U147" t="str">
+        <v>x</v>
+      </c>
+      <c r="V147" t="str">
+        <v>x</v>
+      </c>
+      <c r="W147" t="str">
+        <v>x</v>
+      </c>
+      <c r="X147" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y147" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z147" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA147" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB147" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC147" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD147" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="str">
+        <v>x</v>
+      </c>
+      <c r="C148" t="str">
+        <v>x</v>
+      </c>
+      <c r="D148" t="str">
+        <v>x</v>
+      </c>
+      <c r="E148" t="str">
+        <v>x</v>
+      </c>
+      <c r="F148" t="str">
+        <v>x</v>
+      </c>
+      <c r="G148" t="str">
+        <v>x</v>
+      </c>
+      <c r="H148" t="str">
+        <v>x</v>
+      </c>
+      <c r="I148" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J148" t="str">
+        <v>x</v>
+      </c>
+      <c r="K148" t="str">
+        <v>x</v>
+      </c>
+      <c r="L148" t="str">
+        <v>x</v>
+      </c>
+      <c r="M148" t="str">
+        <v>x</v>
+      </c>
+      <c r="N148" t="str">
+        <v>x</v>
+      </c>
+      <c r="O148" t="str">
+        <v>x</v>
+      </c>
+      <c r="P148" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q148" t="str">
+        <v>x</v>
+      </c>
+      <c r="R148" t="str">
+        <v>x</v>
+      </c>
+      <c r="S148" t="str">
+        <v>x</v>
+      </c>
+      <c r="T148" t="str">
+        <v>x</v>
+      </c>
+      <c r="U148" t="str">
+        <v>x</v>
+      </c>
+      <c r="V148" t="str">
+        <v>x</v>
+      </c>
+      <c r="W148" t="str">
+        <v>x</v>
+      </c>
+      <c r="X148" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y148" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z148" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA148" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB148" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC148" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD148" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="str">
+        <v>x</v>
+      </c>
+      <c r="C149" t="str">
+        <v>x</v>
+      </c>
+      <c r="D149" t="str">
+        <v>x</v>
+      </c>
+      <c r="E149" t="str">
+        <v>x</v>
+      </c>
+      <c r="F149" t="str">
+        <v>x</v>
+      </c>
+      <c r="G149" t="str">
+        <v>x</v>
+      </c>
+      <c r="H149" t="str">
+        <v>x</v>
+      </c>
+      <c r="I149" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J149" t="str">
+        <v>x</v>
+      </c>
+      <c r="K149" t="str">
+        <v>x</v>
+      </c>
+      <c r="L149" t="str">
+        <v>x</v>
+      </c>
+      <c r="M149" t="str">
+        <v>x</v>
+      </c>
+      <c r="N149" t="str">
+        <v>x</v>
+      </c>
+      <c r="O149" t="str">
+        <v>x</v>
+      </c>
+      <c r="P149" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q149" t="str">
+        <v>x</v>
+      </c>
+      <c r="R149" t="str">
+        <v>x</v>
+      </c>
+      <c r="S149" t="str">
+        <v>x</v>
+      </c>
+      <c r="T149" t="str">
+        <v>x</v>
+      </c>
+      <c r="U149" t="str">
+        <v>x</v>
+      </c>
+      <c r="V149" t="str">
+        <v>x</v>
+      </c>
+      <c r="W149" t="str">
+        <v>x</v>
+      </c>
+      <c r="X149" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y149" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z149" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA149" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB149" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC149" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD149" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="str">
+        <v>x</v>
+      </c>
+      <c r="C150" t="str">
+        <v>x</v>
+      </c>
+      <c r="D150" t="str">
+        <v>x</v>
+      </c>
+      <c r="E150" t="str">
+        <v>x</v>
+      </c>
+      <c r="F150" t="str">
+        <v>x</v>
+      </c>
+      <c r="G150" t="str">
+        <v>x</v>
+      </c>
+      <c r="H150" t="str">
+        <v>x</v>
+      </c>
+      <c r="I150" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J150" t="str">
+        <v>x</v>
+      </c>
+      <c r="K150" t="str">
+        <v>x</v>
+      </c>
+      <c r="L150" t="str">
+        <v>x</v>
+      </c>
+      <c r="M150" t="str">
+        <v>x</v>
+      </c>
+      <c r="N150" t="str">
+        <v>x</v>
+      </c>
+      <c r="O150" t="str">
+        <v>x</v>
+      </c>
+      <c r="P150" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q150" t="str">
+        <v>x</v>
+      </c>
+      <c r="R150" t="str">
+        <v>x</v>
+      </c>
+      <c r="S150" t="str">
+        <v>x</v>
+      </c>
+      <c r="T150" t="str">
+        <v>x</v>
+      </c>
+      <c r="U150" t="str">
+        <v>x</v>
+      </c>
+      <c r="V150" t="str">
+        <v>x</v>
+      </c>
+      <c r="W150" t="str">
+        <v>x</v>
+      </c>
+      <c r="X150" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y150" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z150" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA150" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB150" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC150" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD150" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="str">
+        <v>x</v>
+      </c>
+      <c r="C151" t="str">
+        <v>x</v>
+      </c>
+      <c r="D151" t="str">
+        <v>x</v>
+      </c>
+      <c r="E151" t="str">
+        <v>x</v>
+      </c>
+      <c r="F151" t="str">
+        <v>x</v>
+      </c>
+      <c r="G151" t="str">
+        <v>x</v>
+      </c>
+      <c r="H151" t="str">
+        <v>x</v>
+      </c>
+      <c r="I151" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J151" t="str">
+        <v>x</v>
+      </c>
+      <c r="K151" t="str">
+        <v>x</v>
+      </c>
+      <c r="L151" t="str">
+        <v>x</v>
+      </c>
+      <c r="M151" t="str">
+        <v>x</v>
+      </c>
+      <c r="N151" t="str">
+        <v>x</v>
+      </c>
+      <c r="O151" t="str">
+        <v>x</v>
+      </c>
+      <c r="P151" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q151" t="str">
+        <v>x</v>
+      </c>
+      <c r="R151" t="str">
+        <v>x</v>
+      </c>
+      <c r="S151" t="str">
+        <v>x</v>
+      </c>
+      <c r="T151" t="str">
+        <v>x</v>
+      </c>
+      <c r="U151" t="str">
+        <v>x</v>
+      </c>
+      <c r="V151" t="str">
+        <v>x</v>
+      </c>
+      <c r="W151" t="str">
+        <v>x</v>
+      </c>
+      <c r="X151" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y151" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z151" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA151" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB151" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC151" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD151" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="str">
+        <v>x</v>
+      </c>
+      <c r="C152" t="str">
+        <v>x</v>
+      </c>
+      <c r="D152" t="str">
+        <v>x</v>
+      </c>
+      <c r="E152" t="str">
+        <v>x</v>
+      </c>
+      <c r="F152" t="str">
+        <v>x</v>
+      </c>
+      <c r="G152" t="str">
+        <v>x</v>
+      </c>
+      <c r="H152" t="str">
+        <v>x</v>
+      </c>
+      <c r="I152" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J152" t="str">
+        <v>x</v>
+      </c>
+      <c r="K152" t="str">
+        <v>x</v>
+      </c>
+      <c r="L152" t="str">
+        <v>x</v>
+      </c>
+      <c r="M152" t="str">
+        <v>x</v>
+      </c>
+      <c r="N152" t="str">
+        <v>x</v>
+      </c>
+      <c r="O152" t="str">
+        <v>x</v>
+      </c>
+      <c r="P152" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q152" t="str">
+        <v>x</v>
+      </c>
+      <c r="R152" t="str">
+        <v>x</v>
+      </c>
+      <c r="S152" t="str">
+        <v>x</v>
+      </c>
+      <c r="T152" t="str">
+        <v>x</v>
+      </c>
+      <c r="U152" t="str">
+        <v>x</v>
+      </c>
+      <c r="V152" t="str">
+        <v>x</v>
+      </c>
+      <c r="W152" t="str">
+        <v>x</v>
+      </c>
+      <c r="X152" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y152" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z152" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA152" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB152" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC152" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD152" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="str">
+        <v>x</v>
+      </c>
+      <c r="C153" t="str">
+        <v>x</v>
+      </c>
+      <c r="D153" t="str">
+        <v>x</v>
+      </c>
+      <c r="E153" t="str">
+        <v>x</v>
+      </c>
+      <c r="F153" t="str">
+        <v>x</v>
+      </c>
+      <c r="G153" t="str">
+        <v>x</v>
+      </c>
+      <c r="H153" t="str">
+        <v>x</v>
+      </c>
+      <c r="I153" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J153" t="str">
+        <v>x</v>
+      </c>
+      <c r="K153" t="str">
+        <v>x</v>
+      </c>
+      <c r="L153" t="str">
+        <v>x</v>
+      </c>
+      <c r="M153" t="str">
+        <v>x</v>
+      </c>
+      <c r="N153" t="str">
+        <v>x</v>
+      </c>
+      <c r="O153" t="str">
+        <v>x</v>
+      </c>
+      <c r="P153" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q153" t="str">
+        <v>x</v>
+      </c>
+      <c r="R153" t="str">
+        <v>x</v>
+      </c>
+      <c r="S153" t="str">
+        <v>x</v>
+      </c>
+      <c r="T153" t="str">
+        <v>x</v>
+      </c>
+      <c r="U153" t="str">
+        <v>x</v>
+      </c>
+      <c r="V153" t="str">
+        <v>x</v>
+      </c>
+      <c r="W153" t="str">
+        <v>x</v>
+      </c>
+      <c r="X153" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y153" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z153" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA153" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB153" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC153" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD153" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="str">
+        <v>x</v>
+      </c>
+      <c r="C154" t="str">
+        <v>x</v>
+      </c>
+      <c r="D154" t="str">
+        <v>x</v>
+      </c>
+      <c r="E154" t="str">
+        <v>x</v>
+      </c>
+      <c r="F154" t="str">
+        <v>x</v>
+      </c>
+      <c r="G154" t="str">
+        <v>x</v>
+      </c>
+      <c r="H154" t="str">
+        <v>x</v>
+      </c>
+      <c r="I154" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J154" t="str">
+        <v>x</v>
+      </c>
+      <c r="K154" t="str">
+        <v>x</v>
+      </c>
+      <c r="L154" t="str">
+        <v>x</v>
+      </c>
+      <c r="M154" t="str">
+        <v>x</v>
+      </c>
+      <c r="N154" t="str">
+        <v>x</v>
+      </c>
+      <c r="O154" t="str">
+        <v>x</v>
+      </c>
+      <c r="P154" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q154" t="str">
+        <v>x</v>
+      </c>
+      <c r="R154" t="str">
+        <v>x</v>
+      </c>
+      <c r="S154" t="str">
+        <v>x</v>
+      </c>
+      <c r="T154" t="str">
+        <v>x</v>
+      </c>
+      <c r="U154" t="str">
+        <v>x</v>
+      </c>
+      <c r="V154" t="str">
+        <v>x</v>
+      </c>
+      <c r="W154" t="str">
+        <v>x</v>
+      </c>
+      <c r="X154" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y154" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z154" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA154" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB154" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC154" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD154" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="str">
+        <v>x</v>
+      </c>
+      <c r="C155" t="str">
+        <v>x</v>
+      </c>
+      <c r="D155" t="str">
+        <v>x</v>
+      </c>
+      <c r="E155" t="str">
+        <v>x</v>
+      </c>
+      <c r="F155" t="str">
+        <v>x</v>
+      </c>
+      <c r="G155" t="str">
+        <v>x</v>
+      </c>
+      <c r="H155" t="str">
+        <v>x</v>
+      </c>
+      <c r="I155" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J155" t="str">
+        <v>x</v>
+      </c>
+      <c r="K155" t="str">
+        <v>x</v>
+      </c>
+      <c r="L155" t="str">
+        <v>x</v>
+      </c>
+      <c r="M155" t="str">
+        <v>x</v>
+      </c>
+      <c r="N155" t="str">
+        <v>x</v>
+      </c>
+      <c r="O155" t="str">
+        <v>x</v>
+      </c>
+      <c r="P155" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q155" t="str">
+        <v>x</v>
+      </c>
+      <c r="R155" t="str">
+        <v>x</v>
+      </c>
+      <c r="S155" t="str">
+        <v>x</v>
+      </c>
+      <c r="T155" t="str">
+        <v>x</v>
+      </c>
+      <c r="U155" t="str">
+        <v>x</v>
+      </c>
+      <c r="V155" t="str">
+        <v>x</v>
+      </c>
+      <c r="W155" t="str">
+        <v>x</v>
+      </c>
+      <c r="X155" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y155" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z155" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA155" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB155" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC155" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD155" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="str">
+        <v>x</v>
+      </c>
+      <c r="C156" t="str">
+        <v>x</v>
+      </c>
+      <c r="D156" t="str">
+        <v>x</v>
+      </c>
+      <c r="E156" t="str">
+        <v>x</v>
+      </c>
+      <c r="F156" t="str">
+        <v>x</v>
+      </c>
+      <c r="G156" t="str">
+        <v>x</v>
+      </c>
+      <c r="H156" t="str">
+        <v>x</v>
+      </c>
+      <c r="I156" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J156" t="str">
+        <v>x</v>
+      </c>
+      <c r="K156" t="str">
+        <v>x</v>
+      </c>
+      <c r="L156" t="str">
+        <v>x</v>
+      </c>
+      <c r="M156" t="str">
+        <v>x</v>
+      </c>
+      <c r="N156" t="str">
+        <v>x</v>
+      </c>
+      <c r="O156" t="str">
+        <v>x</v>
+      </c>
+      <c r="P156" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q156" t="str">
+        <v>x</v>
+      </c>
+      <c r="R156" t="str">
+        <v>x</v>
+      </c>
+      <c r="S156" t="str">
+        <v>x</v>
+      </c>
+      <c r="T156" t="str">
+        <v>x</v>
+      </c>
+      <c r="U156" t="str">
+        <v>x</v>
+      </c>
+      <c r="V156" t="str">
+        <v>x</v>
+      </c>
+      <c r="W156" t="str">
+        <v>x</v>
+      </c>
+      <c r="X156" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y156" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z156" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA156" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB156" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC156" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD156" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="str">
+        <v>x</v>
+      </c>
+      <c r="C157" t="str">
+        <v>x</v>
+      </c>
+      <c r="D157" t="str">
+        <v>x</v>
+      </c>
+      <c r="E157" t="str">
+        <v>x</v>
+      </c>
+      <c r="F157" t="str">
+        <v>x</v>
+      </c>
+      <c r="G157" t="str">
+        <v>x</v>
+      </c>
+      <c r="H157" t="str">
+        <v>x</v>
+      </c>
+      <c r="I157" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J157" t="str">
+        <v>x</v>
+      </c>
+      <c r="K157" t="str">
+        <v>x</v>
+      </c>
+      <c r="L157" t="str">
+        <v>x</v>
+      </c>
+      <c r="M157" t="str">
+        <v>x</v>
+      </c>
+      <c r="N157" t="str">
+        <v>x</v>
+      </c>
+      <c r="O157" t="str">
+        <v>x</v>
+      </c>
+      <c r="P157" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q157" t="str">
+        <v>x</v>
+      </c>
+      <c r="R157" t="str">
+        <v>x</v>
+      </c>
+      <c r="S157" t="str">
+        <v>x</v>
+      </c>
+      <c r="T157" t="str">
+        <v>x</v>
+      </c>
+      <c r="U157" t="str">
+        <v>x</v>
+      </c>
+      <c r="V157" t="str">
+        <v>x</v>
+      </c>
+      <c r="W157" t="str">
+        <v>x</v>
+      </c>
+      <c r="X157" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y157" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z157" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA157" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB157" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC157" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD157" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="str">
+        <v>x</v>
+      </c>
+      <c r="C158" t="str">
+        <v>x</v>
+      </c>
+      <c r="D158" t="str">
+        <v>x</v>
+      </c>
+      <c r="E158" t="str">
+        <v>x</v>
+      </c>
+      <c r="F158" t="str">
+        <v>x</v>
+      </c>
+      <c r="G158" t="str">
+        <v>x</v>
+      </c>
+      <c r="H158" t="str">
+        <v>x</v>
+      </c>
+      <c r="I158" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J158" t="str">
+        <v>x</v>
+      </c>
+      <c r="K158" t="str">
+        <v>x</v>
+      </c>
+      <c r="L158" t="str">
+        <v>x</v>
+      </c>
+      <c r="M158" t="str">
+        <v>x</v>
+      </c>
+      <c r="N158" t="str">
+        <v>x</v>
+      </c>
+      <c r="O158" t="str">
+        <v>x</v>
+      </c>
+      <c r="P158" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q158" t="str">
+        <v>x</v>
+      </c>
+      <c r="R158" t="str">
+        <v>x</v>
+      </c>
+      <c r="S158" t="str">
+        <v>x</v>
+      </c>
+      <c r="T158" t="str">
+        <v>x</v>
+      </c>
+      <c r="U158" t="str">
+        <v>x</v>
+      </c>
+      <c r="V158" t="str">
+        <v>x</v>
+      </c>
+      <c r="W158" t="str">
+        <v>x</v>
+      </c>
+      <c r="X158" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y158" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z158" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA158" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB158" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC158" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD158" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="str">
+        <v>x</v>
+      </c>
+      <c r="C159" t="str">
+        <v>x</v>
+      </c>
+      <c r="D159" t="str">
+        <v>x</v>
+      </c>
+      <c r="E159" t="str">
+        <v>x</v>
+      </c>
+      <c r="F159" t="str">
+        <v>x</v>
+      </c>
+      <c r="G159" t="str">
+        <v>x</v>
+      </c>
+      <c r="H159" t="str">
+        <v>x</v>
+      </c>
+      <c r="I159" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J159" t="str">
+        <v>x</v>
+      </c>
+      <c r="K159" t="str">
+        <v>x</v>
+      </c>
+      <c r="L159" t="str">
+        <v>x</v>
+      </c>
+      <c r="M159" t="str">
+        <v>x</v>
+      </c>
+      <c r="N159" t="str">
+        <v>x</v>
+      </c>
+      <c r="O159" t="str">
+        <v>x</v>
+      </c>
+      <c r="P159" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q159" t="str">
+        <v>x</v>
+      </c>
+      <c r="R159" t="str">
+        <v>x</v>
+      </c>
+      <c r="S159" t="str">
+        <v>x</v>
+      </c>
+      <c r="T159" t="str">
+        <v>x</v>
+      </c>
+      <c r="U159" t="str">
+        <v>x</v>
+      </c>
+      <c r="V159" t="str">
+        <v>x</v>
+      </c>
+      <c r="W159" t="str">
+        <v>x</v>
+      </c>
+      <c r="X159" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y159" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z159" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA159" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB159" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC159" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD159" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="str">
+        <v>x</v>
+      </c>
+      <c r="C160" t="str">
+        <v>x</v>
+      </c>
+      <c r="D160" t="str">
+        <v>x</v>
+      </c>
+      <c r="E160" t="str">
+        <v>x</v>
+      </c>
+      <c r="F160" t="str">
+        <v>x</v>
+      </c>
+      <c r="G160" t="str">
+        <v>x</v>
+      </c>
+      <c r="H160" t="str">
+        <v>x</v>
+      </c>
+      <c r="I160" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J160" t="str">
+        <v>x</v>
+      </c>
+      <c r="K160" t="str">
+        <v>x</v>
+      </c>
+      <c r="L160" t="str">
+        <v>x</v>
+      </c>
+      <c r="M160" t="str">
+        <v>x</v>
+      </c>
+      <c r="N160" t="str">
+        <v>x</v>
+      </c>
+      <c r="O160" t="str">
+        <v>x</v>
+      </c>
+      <c r="P160" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q160" t="str">
+        <v>x</v>
+      </c>
+      <c r="R160" t="str">
+        <v>x</v>
+      </c>
+      <c r="S160" t="str">
+        <v>x</v>
+      </c>
+      <c r="T160" t="str">
+        <v>x</v>
+      </c>
+      <c r="U160" t="str">
+        <v>x</v>
+      </c>
+      <c r="V160" t="str">
+        <v>x</v>
+      </c>
+      <c r="W160" t="str">
+        <v>x</v>
+      </c>
+      <c r="X160" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y160" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z160" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA160" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB160" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC160" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD160" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="str">
+        <v>x</v>
+      </c>
+      <c r="C161" t="str">
+        <v>x</v>
+      </c>
+      <c r="D161" t="str">
+        <v>x</v>
+      </c>
+      <c r="E161" t="str">
+        <v>x</v>
+      </c>
+      <c r="F161" t="str">
+        <v>x</v>
+      </c>
+      <c r="G161" t="str">
+        <v>x</v>
+      </c>
+      <c r="H161" t="str">
+        <v>x</v>
+      </c>
+      <c r="I161" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J161" t="str">
+        <v>x</v>
+      </c>
+      <c r="K161" t="str">
+        <v>x</v>
+      </c>
+      <c r="L161" t="str">
+        <v>x</v>
+      </c>
+      <c r="M161" t="str">
+        <v>x</v>
+      </c>
+      <c r="N161" t="str">
+        <v>x</v>
+      </c>
+      <c r="O161" t="str">
+        <v>x</v>
+      </c>
+      <c r="P161" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q161" t="str">
+        <v>x</v>
+      </c>
+      <c r="R161" t="str">
+        <v>x</v>
+      </c>
+      <c r="S161" t="str">
+        <v>x</v>
+      </c>
+      <c r="T161" t="str">
+        <v>x</v>
+      </c>
+      <c r="U161" t="str">
+        <v>x</v>
+      </c>
+      <c r="V161" t="str">
+        <v>x</v>
+      </c>
+      <c r="W161" t="str">
+        <v>x</v>
+      </c>
+      <c r="X161" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y161" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z161" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA161" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB161" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC161" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD161" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="str">
+        <v>x</v>
+      </c>
+      <c r="C162" t="str">
+        <v>x</v>
+      </c>
+      <c r="D162" t="str">
+        <v>x</v>
+      </c>
+      <c r="E162" t="str">
+        <v>x</v>
+      </c>
+      <c r="F162" t="str">
+        <v>x</v>
+      </c>
+      <c r="G162" t="str">
+        <v>x</v>
+      </c>
+      <c r="H162" t="str">
+        <v>x</v>
+      </c>
+      <c r="I162" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J162" t="str">
+        <v>x</v>
+      </c>
+      <c r="K162" t="str">
+        <v>x</v>
+      </c>
+      <c r="L162" t="str">
+        <v>x</v>
+      </c>
+      <c r="M162" t="str">
+        <v>x</v>
+      </c>
+      <c r="N162" t="str">
+        <v>x</v>
+      </c>
+      <c r="O162" t="str">
+        <v>x</v>
+      </c>
+      <c r="P162" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q162" t="str">
+        <v>x</v>
+      </c>
+      <c r="R162" t="str">
+        <v>x</v>
+      </c>
+      <c r="S162" t="str">
+        <v>x</v>
+      </c>
+      <c r="T162" t="str">
+        <v>x</v>
+      </c>
+      <c r="U162" t="str">
+        <v>x</v>
+      </c>
+      <c r="V162" t="str">
+        <v>x</v>
+      </c>
+      <c r="W162" t="str">
+        <v>x</v>
+      </c>
+      <c r="X162" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y162" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z162" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA162" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB162" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC162" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD162" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="str">
+        <v>x</v>
+      </c>
+      <c r="C163" t="str">
+        <v>x</v>
+      </c>
+      <c r="D163" t="str">
+        <v>x</v>
+      </c>
+      <c r="E163" t="str">
+        <v>x</v>
+      </c>
+      <c r="F163" t="str">
+        <v>x</v>
+      </c>
+      <c r="G163" t="str">
+        <v>x</v>
+      </c>
+      <c r="H163" t="str">
+        <v>x</v>
+      </c>
+      <c r="I163" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J163" t="str">
+        <v>x</v>
+      </c>
+      <c r="K163" t="str">
+        <v>x</v>
+      </c>
+      <c r="L163" t="str">
+        <v>x</v>
+      </c>
+      <c r="M163" t="str">
+        <v>x</v>
+      </c>
+      <c r="N163" t="str">
+        <v>x</v>
+      </c>
+      <c r="O163" t="str">
+        <v>x</v>
+      </c>
+      <c r="P163" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q163" t="str">
+        <v>x</v>
+      </c>
+      <c r="R163" t="str">
+        <v>x</v>
+      </c>
+      <c r="S163" t="str">
+        <v>x</v>
+      </c>
+      <c r="T163" t="str">
+        <v>x</v>
+      </c>
+      <c r="U163" t="str">
+        <v>x</v>
+      </c>
+      <c r="V163" t="str">
+        <v>x</v>
+      </c>
+      <c r="W163" t="str">
+        <v>x</v>
+      </c>
+      <c r="X163" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y163" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z163" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA163" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB163" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC163" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD163" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="str">
+        <v>x</v>
+      </c>
+      <c r="C164" t="str">
+        <v>x</v>
+      </c>
+      <c r="D164" t="str">
+        <v>x</v>
+      </c>
+      <c r="E164" t="str">
+        <v>x</v>
+      </c>
+      <c r="F164" t="str">
+        <v>x</v>
+      </c>
+      <c r="G164" t="str">
+        <v>x</v>
+      </c>
+      <c r="H164" t="str">
+        <v>x</v>
+      </c>
+      <c r="I164" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J164" t="str">
+        <v>x</v>
+      </c>
+      <c r="K164" t="str">
+        <v>x</v>
+      </c>
+      <c r="L164" t="str">
+        <v>x</v>
+      </c>
+      <c r="M164" t="str">
+        <v>x</v>
+      </c>
+      <c r="N164" t="str">
+        <v>x</v>
+      </c>
+      <c r="O164" t="str">
+        <v>x</v>
+      </c>
+      <c r="P164" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q164" t="str">
+        <v>x</v>
+      </c>
+      <c r="R164" t="str">
+        <v>x</v>
+      </c>
+      <c r="S164" t="str">
+        <v>x</v>
+      </c>
+      <c r="T164" t="str">
+        <v>x</v>
+      </c>
+      <c r="U164" t="str">
+        <v>x</v>
+      </c>
+      <c r="V164" t="str">
+        <v>x</v>
+      </c>
+      <c r="W164" t="str">
+        <v>x</v>
+      </c>
+      <c r="X164" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y164" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z164" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA164" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB164" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC164" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD164" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="str">
+        <v>x</v>
+      </c>
+      <c r="C165" t="str">
+        <v>x</v>
+      </c>
+      <c r="D165" t="str">
+        <v>x</v>
+      </c>
+      <c r="E165" t="str">
+        <v>x</v>
+      </c>
+      <c r="F165" t="str">
+        <v>x</v>
+      </c>
+      <c r="G165" t="str">
+        <v>x</v>
+      </c>
+      <c r="H165" t="str">
+        <v>x</v>
+      </c>
+      <c r="I165" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J165" t="str">
+        <v>x</v>
+      </c>
+      <c r="K165" t="str">
+        <v>x</v>
+      </c>
+      <c r="L165" t="str">
+        <v>x</v>
+      </c>
+      <c r="M165" t="str">
+        <v>x</v>
+      </c>
+      <c r="N165" t="str">
+        <v>x</v>
+      </c>
+      <c r="O165" t="str">
+        <v>x</v>
+      </c>
+      <c r="P165" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q165" t="str">
+        <v>x</v>
+      </c>
+      <c r="R165" t="str">
+        <v>x</v>
+      </c>
+      <c r="S165" t="str">
+        <v>x</v>
+      </c>
+      <c r="T165" t="str">
+        <v>x</v>
+      </c>
+      <c r="U165" t="str">
+        <v>x</v>
+      </c>
+      <c r="V165" t="str">
+        <v>x</v>
+      </c>
+      <c r="W165" t="str">
+        <v>x</v>
+      </c>
+      <c r="X165" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y165" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z165" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA165" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB165" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC165" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD165" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="str">
+        <v>x</v>
+      </c>
+      <c r="C166" t="str">
+        <v>x</v>
+      </c>
+      <c r="D166" t="str">
+        <v>x</v>
+      </c>
+      <c r="E166" t="str">
+        <v>x</v>
+      </c>
+      <c r="F166" t="str">
+        <v>x</v>
+      </c>
+      <c r="G166" t="str">
+        <v>x</v>
+      </c>
+      <c r="H166" t="str">
+        <v>x</v>
+      </c>
+      <c r="I166" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J166" t="str">
+        <v>x</v>
+      </c>
+      <c r="K166" t="str">
+        <v>x</v>
+      </c>
+      <c r="L166" t="str">
+        <v>x</v>
+      </c>
+      <c r="M166" t="str">
+        <v>x</v>
+      </c>
+      <c r="N166" t="str">
+        <v>x</v>
+      </c>
+      <c r="O166" t="str">
+        <v>x</v>
+      </c>
+      <c r="P166" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q166" t="str">
+        <v>x</v>
+      </c>
+      <c r="R166" t="str">
+        <v>x</v>
+      </c>
+      <c r="S166" t="str">
+        <v>x</v>
+      </c>
+      <c r="T166" t="str">
+        <v>x</v>
+      </c>
+      <c r="U166" t="str">
+        <v>x</v>
+      </c>
+      <c r="V166" t="str">
+        <v>x</v>
+      </c>
+      <c r="W166" t="str">
+        <v>x</v>
+      </c>
+      <c r="X166" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y166" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z166" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA166" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB166" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC166" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD166" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="str">
+        <v>x</v>
+      </c>
+      <c r="C167" t="str">
+        <v>x</v>
+      </c>
+      <c r="D167" t="str">
+        <v>x</v>
+      </c>
+      <c r="E167" t="str">
+        <v>x</v>
+      </c>
+      <c r="F167" t="str">
+        <v>x</v>
+      </c>
+      <c r="G167" t="str">
+        <v>x</v>
+      </c>
+      <c r="H167" t="str">
+        <v>x</v>
+      </c>
+      <c r="I167" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J167" t="str">
+        <v>x</v>
+      </c>
+      <c r="K167" t="str">
+        <v>x</v>
+      </c>
+      <c r="L167" t="str">
+        <v>x</v>
+      </c>
+      <c r="M167" t="str">
+        <v>x</v>
+      </c>
+      <c r="N167" t="str">
+        <v>x</v>
+      </c>
+      <c r="O167" t="str">
+        <v>x</v>
+      </c>
+      <c r="P167" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q167" t="str">
+        <v>x</v>
+      </c>
+      <c r="R167" t="str">
+        <v>x</v>
+      </c>
+      <c r="S167" t="str">
+        <v>x</v>
+      </c>
+      <c r="T167" t="str">
+        <v>x</v>
+      </c>
+      <c r="U167" t="str">
+        <v>x</v>
+      </c>
+      <c r="V167" t="str">
+        <v>x</v>
+      </c>
+      <c r="W167" t="str">
+        <v>x</v>
+      </c>
+      <c r="X167" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y167" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z167" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA167" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB167" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC167" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD167" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="str">
+        <v>x</v>
+      </c>
+      <c r="C168" t="str">
+        <v>x</v>
+      </c>
+      <c r="D168" t="str">
+        <v>x</v>
+      </c>
+      <c r="E168" t="str">
+        <v>x</v>
+      </c>
+      <c r="F168" t="str">
+        <v>x</v>
+      </c>
+      <c r="G168" t="str">
+        <v>x</v>
+      </c>
+      <c r="H168" t="str">
+        <v>x</v>
+      </c>
+      <c r="I168" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J168" t="str">
+        <v>x</v>
+      </c>
+      <c r="K168" t="str">
+        <v>x</v>
+      </c>
+      <c r="L168" t="str">
+        <v>x</v>
+      </c>
+      <c r="M168" t="str">
+        <v>x</v>
+      </c>
+      <c r="N168" t="str">
+        <v>x</v>
+      </c>
+      <c r="O168" t="str">
+        <v>x</v>
+      </c>
+      <c r="P168" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q168" t="str">
+        <v>x</v>
+      </c>
+      <c r="R168" t="str">
+        <v>x</v>
+      </c>
+      <c r="S168" t="str">
+        <v>x</v>
+      </c>
+      <c r="T168" t="str">
+        <v>x</v>
+      </c>
+      <c r="U168" t="str">
+        <v>x</v>
+      </c>
+      <c r="V168" t="str">
+        <v>x</v>
+      </c>
+      <c r="W168" t="str">
+        <v>x</v>
+      </c>
+      <c r="X168" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y168" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z168" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA168" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB168" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC168" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD168" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="str">
+        <v>x</v>
+      </c>
+      <c r="C169" t="str">
+        <v>x</v>
+      </c>
+      <c r="D169" t="str">
+        <v>x</v>
+      </c>
+      <c r="E169" t="str">
+        <v>x</v>
+      </c>
+      <c r="F169" t="str">
+        <v>x</v>
+      </c>
+      <c r="G169" t="str">
+        <v>x</v>
+      </c>
+      <c r="H169" t="str">
+        <v>x</v>
+      </c>
+      <c r="I169" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J169" t="str">
+        <v>x</v>
+      </c>
+      <c r="K169" t="str">
+        <v>x</v>
+      </c>
+      <c r="L169" t="str">
+        <v>x</v>
+      </c>
+      <c r="M169" t="str">
+        <v>x</v>
+      </c>
+      <c r="N169" t="str">
+        <v>x</v>
+      </c>
+      <c r="O169" t="str">
+        <v>x</v>
+      </c>
+      <c r="P169" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q169" t="str">
+        <v>x</v>
+      </c>
+      <c r="R169" t="str">
+        <v>x</v>
+      </c>
+      <c r="S169" t="str">
+        <v>x</v>
+      </c>
+      <c r="T169" t="str">
+        <v>x</v>
+      </c>
+      <c r="U169" t="str">
+        <v>x</v>
+      </c>
+      <c r="V169" t="str">
+        <v>x</v>
+      </c>
+      <c r="W169" t="str">
+        <v>x</v>
+      </c>
+      <c r="X169" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y169" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z169" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA169" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB169" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC169" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD169" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="str">
+        <v>x</v>
+      </c>
+      <c r="C170" t="str">
+        <v>x</v>
+      </c>
+      <c r="D170" t="str">
+        <v>x</v>
+      </c>
+      <c r="E170" t="str">
+        <v>x</v>
+      </c>
+      <c r="F170" t="str">
+        <v>x</v>
+      </c>
+      <c r="G170" t="str">
+        <v>x</v>
+      </c>
+      <c r="H170" t="str">
+        <v>x</v>
+      </c>
+      <c r="I170" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J170" t="str">
+        <v>x</v>
+      </c>
+      <c r="K170" t="str">
+        <v>x</v>
+      </c>
+      <c r="L170" t="str">
+        <v>x</v>
+      </c>
+      <c r="M170" t="str">
+        <v>x</v>
+      </c>
+      <c r="N170" t="str">
+        <v>x</v>
+      </c>
+      <c r="O170" t="str">
+        <v>x</v>
+      </c>
+      <c r="P170" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q170" t="str">
+        <v>x</v>
+      </c>
+      <c r="R170" t="str">
+        <v>x</v>
+      </c>
+      <c r="S170" t="str">
+        <v>x</v>
+      </c>
+      <c r="T170" t="str">
+        <v>x</v>
+      </c>
+      <c r="U170" t="str">
+        <v>x</v>
+      </c>
+      <c r="V170" t="str">
+        <v>x</v>
+      </c>
+      <c r="W170" t="str">
+        <v>x</v>
+      </c>
+      <c r="X170" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y170" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z170" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA170" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB170" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC170" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD170" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="str">
+        <v>x</v>
+      </c>
+      <c r="C171" t="str">
+        <v>x</v>
+      </c>
+      <c r="D171" t="str">
+        <v>x</v>
+      </c>
+      <c r="E171" t="str">
+        <v>x</v>
+      </c>
+      <c r="F171" t="str">
+        <v>x</v>
+      </c>
+      <c r="G171" t="str">
+        <v>x</v>
+      </c>
+      <c r="H171" t="str">
+        <v>x</v>
+      </c>
+      <c r="I171" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J171" t="str">
+        <v>x</v>
+      </c>
+      <c r="K171" t="str">
+        <v>x</v>
+      </c>
+      <c r="L171" t="str">
+        <v>x</v>
+      </c>
+      <c r="M171" t="str">
+        <v>x</v>
+      </c>
+      <c r="N171" t="str">
+        <v>x</v>
+      </c>
+      <c r="O171" t="str">
+        <v>x</v>
+      </c>
+      <c r="P171" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q171" t="str">
+        <v>x</v>
+      </c>
+      <c r="R171" t="str">
+        <v>x</v>
+      </c>
+      <c r="S171" t="str">
+        <v>x</v>
+      </c>
+      <c r="T171" t="str">
+        <v>x</v>
+      </c>
+      <c r="U171" t="str">
+        <v>x</v>
+      </c>
+      <c r="V171" t="str">
+        <v>x</v>
+      </c>
+      <c r="W171" t="str">
+        <v>x</v>
+      </c>
+      <c r="X171" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y171" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z171" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA171" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB171" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC171" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD171" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="str">
+        <v>x</v>
+      </c>
+      <c r="C172" t="str">
+        <v>x</v>
+      </c>
+      <c r="D172" t="str">
+        <v>x</v>
+      </c>
+      <c r="E172" t="str">
+        <v>x</v>
+      </c>
+      <c r="F172" t="str">
+        <v>x</v>
+      </c>
+      <c r="G172" t="str">
+        <v>x</v>
+      </c>
+      <c r="H172" t="str">
+        <v>x</v>
+      </c>
+      <c r="I172" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J172" t="str">
+        <v>x</v>
+      </c>
+      <c r="K172" t="str">
+        <v>x</v>
+      </c>
+      <c r="L172" t="str">
+        <v>x</v>
+      </c>
+      <c r="M172" t="str">
+        <v>x</v>
+      </c>
+      <c r="N172" t="str">
+        <v>x</v>
+      </c>
+      <c r="O172" t="str">
+        <v>x</v>
+      </c>
+      <c r="P172" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q172" t="str">
+        <v>x</v>
+      </c>
+      <c r="R172" t="str">
+        <v>x</v>
+      </c>
+      <c r="S172" t="str">
+        <v>x</v>
+      </c>
+      <c r="T172" t="str">
+        <v>x</v>
+      </c>
+      <c r="U172" t="str">
+        <v>x</v>
+      </c>
+      <c r="V172" t="str">
+        <v>x</v>
+      </c>
+      <c r="W172" t="str">
+        <v>x</v>
+      </c>
+      <c r="X172" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y172" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z172" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA172" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB172" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC172" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD172" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="str">
+        <v>x</v>
+      </c>
+      <c r="C173" t="str">
+        <v>x</v>
+      </c>
+      <c r="D173" t="str">
+        <v>x</v>
+      </c>
+      <c r="E173" t="str">
+        <v>x</v>
+      </c>
+      <c r="F173" t="str">
+        <v>x</v>
+      </c>
+      <c r="G173" t="str">
+        <v>x</v>
+      </c>
+      <c r="H173" t="str">
+        <v>x</v>
+      </c>
+      <c r="I173" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J173" t="str">
+        <v>x</v>
+      </c>
+      <c r="K173" t="str">
+        <v>x</v>
+      </c>
+      <c r="L173" t="str">
+        <v>x</v>
+      </c>
+      <c r="M173" t="str">
+        <v>x</v>
+      </c>
+      <c r="N173" t="str">
+        <v>x</v>
+      </c>
+      <c r="O173" t="str">
+        <v>x</v>
+      </c>
+      <c r="P173" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q173" t="str">
+        <v>x</v>
+      </c>
+      <c r="R173" t="str">
+        <v>x</v>
+      </c>
+      <c r="S173" t="str">
+        <v>x</v>
+      </c>
+      <c r="T173" t="str">
+        <v>x</v>
+      </c>
+      <c r="U173" t="str">
+        <v>x</v>
+      </c>
+      <c r="V173" t="str">
+        <v>x</v>
+      </c>
+      <c r="W173" t="str">
+        <v>x</v>
+      </c>
+      <c r="X173" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y173" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z173" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA173" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB173" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC173" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD173" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="str">
+        <v>x</v>
+      </c>
+      <c r="C174" t="str">
+        <v>x</v>
+      </c>
+      <c r="D174" t="str">
+        <v>x</v>
+      </c>
+      <c r="E174" t="str">
+        <v>x</v>
+      </c>
+      <c r="F174" t="str">
+        <v>x</v>
+      </c>
+      <c r="G174" t="str">
+        <v>x</v>
+      </c>
+      <c r="H174" t="str">
+        <v>x</v>
+      </c>
+      <c r="I174" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J174" t="str">
+        <v>x</v>
+      </c>
+      <c r="K174" t="str">
+        <v>x</v>
+      </c>
+      <c r="L174" t="str">
+        <v>x</v>
+      </c>
+      <c r="M174" t="str">
+        <v>x</v>
+      </c>
+      <c r="N174" t="str">
+        <v>x</v>
+      </c>
+      <c r="O174" t="str">
+        <v>x</v>
+      </c>
+      <c r="P174" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q174" t="str">
+        <v>x</v>
+      </c>
+      <c r="R174" t="str">
+        <v>x</v>
+      </c>
+      <c r="S174" t="str">
+        <v>x</v>
+      </c>
+      <c r="T174" t="str">
+        <v>x</v>
+      </c>
+      <c r="U174" t="str">
+        <v>x</v>
+      </c>
+      <c r="V174" t="str">
+        <v>x</v>
+      </c>
+      <c r="W174" t="str">
+        <v>x</v>
+      </c>
+      <c r="X174" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y174" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z174" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA174" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB174" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC174" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD174" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="str">
+        <v>x</v>
+      </c>
+      <c r="C175" t="str">
+        <v>x</v>
+      </c>
+      <c r="D175" t="str">
+        <v>x</v>
+      </c>
+      <c r="E175" t="str">
+        <v>x</v>
+      </c>
+      <c r="F175" t="str">
+        <v>x</v>
+      </c>
+      <c r="G175" t="str">
+        <v>x</v>
+      </c>
+      <c r="H175" t="str">
+        <v>x</v>
+      </c>
+      <c r="I175" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J175" t="str">
+        <v>x</v>
+      </c>
+      <c r="K175" t="str">
+        <v>x</v>
+      </c>
+      <c r="L175" t="str">
+        <v>x</v>
+      </c>
+      <c r="M175" t="str">
+        <v>x</v>
+      </c>
+      <c r="N175" t="str">
+        <v>x</v>
+      </c>
+      <c r="O175" t="str">
+        <v>x</v>
+      </c>
+      <c r="P175" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q175" t="str">
+        <v>x</v>
+      </c>
+      <c r="R175" t="str">
+        <v>x</v>
+      </c>
+      <c r="S175" t="str">
+        <v>x</v>
+      </c>
+      <c r="T175" t="str">
+        <v>x</v>
+      </c>
+      <c r="U175" t="str">
+        <v>x</v>
+      </c>
+      <c r="V175" t="str">
+        <v>x</v>
+      </c>
+      <c r="W175" t="str">
+        <v>x</v>
+      </c>
+      <c r="X175" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y175" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z175" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA175" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB175" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC175" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD175" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="str">
+        <v>x</v>
+      </c>
+      <c r="C176" t="str">
+        <v>x</v>
+      </c>
+      <c r="D176" t="str">
+        <v>x</v>
+      </c>
+      <c r="E176" t="str">
+        <v>x</v>
+      </c>
+      <c r="F176" t="str">
+        <v>x</v>
+      </c>
+      <c r="G176" t="str">
+        <v>x</v>
+      </c>
+      <c r="H176" t="str">
+        <v>x</v>
+      </c>
+      <c r="I176" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J176" t="str">
+        <v>x</v>
+      </c>
+      <c r="K176" t="str">
+        <v>x</v>
+      </c>
+      <c r="L176" t="str">
+        <v>x</v>
+      </c>
+      <c r="M176" t="str">
+        <v>x</v>
+      </c>
+      <c r="N176" t="str">
+        <v>x</v>
+      </c>
+      <c r="O176" t="str">
+        <v>x</v>
+      </c>
+      <c r="P176" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q176" t="str">
+        <v>x</v>
+      </c>
+      <c r="R176" t="str">
+        <v>x</v>
+      </c>
+      <c r="S176" t="str">
+        <v>x</v>
+      </c>
+      <c r="T176" t="str">
+        <v>x</v>
+      </c>
+      <c r="U176" t="str">
+        <v>x</v>
+      </c>
+      <c r="V176" t="str">
+        <v>x</v>
+      </c>
+      <c r="W176" t="str">
+        <v>x</v>
+      </c>
+      <c r="X176" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y176" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z176" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA176" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB176" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC176" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD176" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="str">
+        <v>x</v>
+      </c>
+      <c r="C177" t="str">
+        <v>x</v>
+      </c>
+      <c r="D177" t="str">
+        <v>x</v>
+      </c>
+      <c r="E177" t="str">
+        <v>x</v>
+      </c>
+      <c r="F177" t="str">
+        <v>x</v>
+      </c>
+      <c r="G177" t="str">
+        <v>x</v>
+      </c>
+      <c r="H177" t="str">
+        <v>x</v>
+      </c>
+      <c r="I177" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J177" t="str">
+        <v>x</v>
+      </c>
+      <c r="K177" t="str">
+        <v>x</v>
+      </c>
+      <c r="L177" t="str">
+        <v>x</v>
+      </c>
+      <c r="M177" t="str">
+        <v>x</v>
+      </c>
+      <c r="N177" t="str">
+        <v>x</v>
+      </c>
+      <c r="O177" t="str">
+        <v>x</v>
+      </c>
+      <c r="P177" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q177" t="str">
+        <v>x</v>
+      </c>
+      <c r="R177" t="str">
+        <v>x</v>
+      </c>
+      <c r="S177" t="str">
+        <v>x</v>
+      </c>
+      <c r="T177" t="str">
+        <v>x</v>
+      </c>
+      <c r="U177" t="str">
+        <v>x</v>
+      </c>
+      <c r="V177" t="str">
+        <v>x</v>
+      </c>
+      <c r="W177" t="str">
+        <v>x</v>
+      </c>
+      <c r="X177" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y177" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z177" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA177" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB177" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC177" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD177" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="str">
+        <v>x</v>
+      </c>
+      <c r="C178" t="str">
+        <v>x</v>
+      </c>
+      <c r="D178" t="str">
+        <v>x</v>
+      </c>
+      <c r="E178" t="str">
+        <v>x</v>
+      </c>
+      <c r="F178" t="str">
+        <v>x</v>
+      </c>
+      <c r="G178" t="str">
+        <v>x</v>
+      </c>
+      <c r="H178" t="str">
+        <v>x</v>
+      </c>
+      <c r="I178" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J178" t="str">
+        <v>x</v>
+      </c>
+      <c r="K178" t="str">
+        <v>x</v>
+      </c>
+      <c r="L178" t="str">
+        <v>x</v>
+      </c>
+      <c r="M178" t="str">
+        <v>x</v>
+      </c>
+      <c r="N178" t="str">
+        <v>x</v>
+      </c>
+      <c r="O178" t="str">
+        <v>x</v>
+      </c>
+      <c r="P178" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q178" t="str">
+        <v>x</v>
+      </c>
+      <c r="R178" t="str">
+        <v>x</v>
+      </c>
+      <c r="S178" t="str">
+        <v>x</v>
+      </c>
+      <c r="T178" t="str">
+        <v>x</v>
+      </c>
+      <c r="U178" t="str">
+        <v>x</v>
+      </c>
+      <c r="V178" t="str">
+        <v>x</v>
+      </c>
+      <c r="W178" t="str">
+        <v>x</v>
+      </c>
+      <c r="X178" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y178" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z178" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA178" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB178" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC178" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD178" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="str">
+        <v>x</v>
+      </c>
+      <c r="C179" t="str">
+        <v>x</v>
+      </c>
+      <c r="D179" t="str">
+        <v>x</v>
+      </c>
+      <c r="E179" t="str">
+        <v>x</v>
+      </c>
+      <c r="F179" t="str">
+        <v>x</v>
+      </c>
+      <c r="G179" t="str">
+        <v>x</v>
+      </c>
+      <c r="H179" t="str">
+        <v>x</v>
+      </c>
+      <c r="I179" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J179" t="str">
+        <v>x</v>
+      </c>
+      <c r="K179" t="str">
+        <v>x</v>
+      </c>
+      <c r="L179" t="str">
+        <v>x</v>
+      </c>
+      <c r="M179" t="str">
+        <v>x</v>
+      </c>
+      <c r="N179" t="str">
+        <v>x</v>
+      </c>
+      <c r="O179" t="str">
+        <v>x</v>
+      </c>
+      <c r="P179" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q179" t="str">
+        <v>x</v>
+      </c>
+      <c r="R179" t="str">
+        <v>x</v>
+      </c>
+      <c r="S179" t="str">
+        <v>x</v>
+      </c>
+      <c r="T179" t="str">
+        <v>x</v>
+      </c>
+      <c r="U179" t="str">
+        <v>x</v>
+      </c>
+      <c r="V179" t="str">
+        <v>x</v>
+      </c>
+      <c r="W179" t="str">
+        <v>x</v>
+      </c>
+      <c r="X179" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y179" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z179" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA179" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB179" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC179" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD179" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="str">
+        <v>x</v>
+      </c>
+      <c r="C180" t="str">
+        <v>x</v>
+      </c>
+      <c r="D180" t="str">
+        <v>x</v>
+      </c>
+      <c r="E180" t="str">
+        <v>x</v>
+      </c>
+      <c r="F180" t="str">
+        <v>x</v>
+      </c>
+      <c r="G180" t="str">
+        <v>x</v>
+      </c>
+      <c r="H180" t="str">
+        <v>x</v>
+      </c>
+      <c r="I180" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J180" t="str">
+        <v>x</v>
+      </c>
+      <c r="K180" t="str">
+        <v>x</v>
+      </c>
+      <c r="L180" t="str">
+        <v>x</v>
+      </c>
+      <c r="M180" t="str">
+        <v>x</v>
+      </c>
+      <c r="N180" t="str">
+        <v>x</v>
+      </c>
+      <c r="O180" t="str">
+        <v>x</v>
+      </c>
+      <c r="P180" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q180" t="str">
+        <v>x</v>
+      </c>
+      <c r="R180" t="str">
+        <v>x</v>
+      </c>
+      <c r="S180" t="str">
+        <v>x</v>
+      </c>
+      <c r="T180" t="str">
+        <v>x</v>
+      </c>
+      <c r="U180" t="str">
+        <v>x</v>
+      </c>
+      <c r="V180" t="str">
+        <v>x</v>
+      </c>
+      <c r="W180" t="str">
+        <v>x</v>
+      </c>
+      <c r="X180" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y180" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z180" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA180" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB180" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC180" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD180" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="str">
+        <v>x</v>
+      </c>
+      <c r="C181" t="str">
+        <v>x</v>
+      </c>
+      <c r="D181" t="str">
+        <v>x</v>
+      </c>
+      <c r="E181" t="str">
+        <v>x</v>
+      </c>
+      <c r="F181" t="str">
+        <v>x</v>
+      </c>
+      <c r="G181" t="str">
+        <v>x</v>
+      </c>
+      <c r="H181" t="str">
+        <v>x</v>
+      </c>
+      <c r="I181" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J181" t="str">
+        <v>x</v>
+      </c>
+      <c r="K181" t="str">
+        <v>x</v>
+      </c>
+      <c r="L181" t="str">
+        <v>x</v>
+      </c>
+      <c r="M181" t="str">
+        <v>x</v>
+      </c>
+      <c r="N181" t="str">
+        <v>x</v>
+      </c>
+      <c r="O181" t="str">
+        <v>x</v>
+      </c>
+      <c r="P181" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q181" t="str">
+        <v>x</v>
+      </c>
+      <c r="R181" t="str">
+        <v>x</v>
+      </c>
+      <c r="S181" t="str">
+        <v>x</v>
+      </c>
+      <c r="T181" t="str">
+        <v>x</v>
+      </c>
+      <c r="U181" t="str">
+        <v>x</v>
+      </c>
+      <c r="V181" t="str">
+        <v>x</v>
+      </c>
+      <c r="W181" t="str">
+        <v>x</v>
+      </c>
+      <c r="X181" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y181" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z181" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA181" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB181" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC181" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD181" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="str">
+        <v>x</v>
+      </c>
+      <c r="C182" t="str">
+        <v>x</v>
+      </c>
+      <c r="D182" t="str">
+        <v>x</v>
+      </c>
+      <c r="E182" t="str">
+        <v>x</v>
+      </c>
+      <c r="F182" t="str">
+        <v>x</v>
+      </c>
+      <c r="G182" t="str">
+        <v>x</v>
+      </c>
+      <c r="H182" t="str">
+        <v>x</v>
+      </c>
+      <c r="I182" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J182" t="str">
+        <v>x</v>
+      </c>
+      <c r="K182" t="str">
+        <v>x</v>
+      </c>
+      <c r="L182" t="str">
+        <v>x</v>
+      </c>
+      <c r="M182" t="str">
+        <v>x</v>
+      </c>
+      <c r="N182" t="str">
+        <v>x</v>
+      </c>
+      <c r="O182" t="str">
+        <v>x</v>
+      </c>
+      <c r="P182" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q182" t="str">
+        <v>x</v>
+      </c>
+      <c r="R182" t="str">
+        <v>x</v>
+      </c>
+      <c r="S182" t="str">
+        <v>x</v>
+      </c>
+      <c r="T182" t="str">
+        <v>x</v>
+      </c>
+      <c r="U182" t="str">
+        <v>x</v>
+      </c>
+      <c r="V182" t="str">
+        <v>x</v>
+      </c>
+      <c r="W182" t="str">
+        <v>x</v>
+      </c>
+      <c r="X182" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y182" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z182" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA182" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB182" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC182" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD182" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="str">
+        <v>x</v>
+      </c>
+      <c r="C183" t="str">
+        <v>x</v>
+      </c>
+      <c r="D183" t="str">
+        <v>x</v>
+      </c>
+      <c r="E183" t="str">
+        <v>x</v>
+      </c>
+      <c r="F183" t="str">
+        <v>x</v>
+      </c>
+      <c r="G183" t="str">
+        <v>x</v>
+      </c>
+      <c r="H183" t="str">
+        <v>x</v>
+      </c>
+      <c r="I183" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J183" t="str">
+        <v>x</v>
+      </c>
+      <c r="K183" t="str">
+        <v>x</v>
+      </c>
+      <c r="L183" t="str">
+        <v>x</v>
+      </c>
+      <c r="M183" t="str">
+        <v>x</v>
+      </c>
+      <c r="N183" t="str">
+        <v>x</v>
+      </c>
+      <c r="O183" t="str">
+        <v>x</v>
+      </c>
+      <c r="P183" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q183" t="str">
+        <v>x</v>
+      </c>
+      <c r="R183" t="str">
+        <v>x</v>
+      </c>
+      <c r="S183" t="str">
+        <v>x</v>
+      </c>
+      <c r="T183" t="str">
+        <v>x</v>
+      </c>
+      <c r="U183" t="str">
+        <v>x</v>
+      </c>
+      <c r="V183" t="str">
+        <v>x</v>
+      </c>
+      <c r="W183" t="str">
+        <v>x</v>
+      </c>
+      <c r="X183" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y183" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z183" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA183" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB183" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC183" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD183" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="str">
+        <v>x</v>
+      </c>
+      <c r="C184" t="str">
+        <v>x</v>
+      </c>
+      <c r="D184" t="str">
+        <v>x</v>
+      </c>
+      <c r="E184" t="str">
+        <v>x</v>
+      </c>
+      <c r="F184" t="str">
+        <v>x</v>
+      </c>
+      <c r="G184" t="str">
+        <v>x</v>
+      </c>
+      <c r="H184" t="str">
+        <v>x</v>
+      </c>
+      <c r="I184" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J184" t="str">
+        <v>x</v>
+      </c>
+      <c r="K184" t="str">
+        <v>x</v>
+      </c>
+      <c r="L184" t="str">
+        <v>x</v>
+      </c>
+      <c r="M184" t="str">
+        <v>x</v>
+      </c>
+      <c r="N184" t="str">
+        <v>x</v>
+      </c>
+      <c r="O184" t="str">
+        <v>x</v>
+      </c>
+      <c r="P184" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q184" t="str">
+        <v>x</v>
+      </c>
+      <c r="R184" t="str">
+        <v>x</v>
+      </c>
+      <c r="S184" t="str">
+        <v>x</v>
+      </c>
+      <c r="T184" t="str">
+        <v>x</v>
+      </c>
+      <c r="U184" t="str">
+        <v>x</v>
+      </c>
+      <c r="V184" t="str">
+        <v>x</v>
+      </c>
+      <c r="W184" t="str">
+        <v>x</v>
+      </c>
+      <c r="X184" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y184" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z184" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA184" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB184" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC184" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD184" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="str">
+        <v>x</v>
+      </c>
+      <c r="C185" t="str">
+        <v>x</v>
+      </c>
+      <c r="D185" t="str">
+        <v>x</v>
+      </c>
+      <c r="E185" t="str">
+        <v>x</v>
+      </c>
+      <c r="F185" t="str">
+        <v>x</v>
+      </c>
+      <c r="G185" t="str">
+        <v>x</v>
+      </c>
+      <c r="H185" t="str">
+        <v>x</v>
+      </c>
+      <c r="I185" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J185" t="str">
+        <v>x</v>
+      </c>
+      <c r="K185" t="str">
+        <v>x</v>
+      </c>
+      <c r="L185" t="str">
+        <v>x</v>
+      </c>
+      <c r="M185" t="str">
+        <v>x</v>
+      </c>
+      <c r="N185" t="str">
+        <v>x</v>
+      </c>
+      <c r="O185" t="str">
+        <v>x</v>
+      </c>
+      <c r="P185" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q185" t="str">
+        <v>x</v>
+      </c>
+      <c r="R185" t="str">
+        <v>x</v>
+      </c>
+      <c r="S185" t="str">
+        <v>x</v>
+      </c>
+      <c r="T185" t="str">
+        <v>x</v>
+      </c>
+      <c r="U185" t="str">
+        <v>x</v>
+      </c>
+      <c r="V185" t="str">
+        <v>x</v>
+      </c>
+      <c r="W185" t="str">
+        <v>x</v>
+      </c>
+      <c r="X185" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y185" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z185" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA185" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB185" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC185" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD185" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="str">
+        <v>x</v>
+      </c>
+      <c r="C186" t="str">
+        <v>x</v>
+      </c>
+      <c r="D186" t="str">
+        <v>x</v>
+      </c>
+      <c r="E186" t="str">
+        <v>x</v>
+      </c>
+      <c r="F186" t="str">
+        <v>x</v>
+      </c>
+      <c r="G186" t="str">
+        <v>x</v>
+      </c>
+      <c r="H186" t="str">
+        <v>x</v>
+      </c>
+      <c r="I186" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J186" t="str">
+        <v>x</v>
+      </c>
+      <c r="K186" t="str">
+        <v>x</v>
+      </c>
+      <c r="L186" t="str">
+        <v>x</v>
+      </c>
+      <c r="M186" t="str">
+        <v>x</v>
+      </c>
+      <c r="N186" t="str">
+        <v>x</v>
+      </c>
+      <c r="O186" t="str">
+        <v>x</v>
+      </c>
+      <c r="P186" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q186" t="str">
+        <v>x</v>
+      </c>
+      <c r="R186" t="str">
+        <v>x</v>
+      </c>
+      <c r="S186" t="str">
+        <v>x</v>
+      </c>
+      <c r="T186" t="str">
+        <v>x</v>
+      </c>
+      <c r="U186" t="str">
+        <v>x</v>
+      </c>
+      <c r="V186" t="str">
+        <v>x</v>
+      </c>
+      <c r="W186" t="str">
+        <v>x</v>
+      </c>
+      <c r="X186" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y186" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z186" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA186" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB186" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC186" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD186" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="str">
+        <v>x</v>
+      </c>
+      <c r="C187" t="str">
+        <v>x</v>
+      </c>
+      <c r="D187" t="str">
+        <v>x</v>
+      </c>
+      <c r="E187" t="str">
+        <v>x</v>
+      </c>
+      <c r="F187" t="str">
+        <v>x</v>
+      </c>
+      <c r="G187" t="str">
+        <v>x</v>
+      </c>
+      <c r="H187" t="str">
+        <v>x</v>
+      </c>
+      <c r="I187" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J187" t="str">
+        <v>x</v>
+      </c>
+      <c r="K187" t="str">
+        <v>x</v>
+      </c>
+      <c r="L187" t="str">
+        <v>x</v>
+      </c>
+      <c r="M187" t="str">
+        <v>x</v>
+      </c>
+      <c r="N187" t="str">
+        <v>x</v>
+      </c>
+      <c r="O187" t="str">
+        <v>x</v>
+      </c>
+      <c r="P187" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q187" t="str">
+        <v>x</v>
+      </c>
+      <c r="R187" t="str">
+        <v>x</v>
+      </c>
+      <c r="S187" t="str">
+        <v>x</v>
+      </c>
+      <c r="T187" t="str">
+        <v>x</v>
+      </c>
+      <c r="U187" t="str">
+        <v>x</v>
+      </c>
+      <c r="V187" t="str">
+        <v>x</v>
+      </c>
+      <c r="W187" t="str">
+        <v>x</v>
+      </c>
+      <c r="X187" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y187" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z187" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA187" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB187" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC187" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD187" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="str">
+        <v>x</v>
+      </c>
+      <c r="C188" t="str">
+        <v>x</v>
+      </c>
+      <c r="D188" t="str">
+        <v>x</v>
+      </c>
+      <c r="E188" t="str">
+        <v>x</v>
+      </c>
+      <c r="F188" t="str">
+        <v>x</v>
+      </c>
+      <c r="G188" t="str">
+        <v>x</v>
+      </c>
+      <c r="H188" t="str">
+        <v>x</v>
+      </c>
+      <c r="I188" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J188" t="str">
+        <v>x</v>
+      </c>
+      <c r="K188" t="str">
+        <v>x</v>
+      </c>
+      <c r="L188" t="str">
+        <v>x</v>
+      </c>
+      <c r="M188" t="str">
+        <v>x</v>
+      </c>
+      <c r="N188" t="str">
+        <v>x</v>
+      </c>
+      <c r="O188" t="str">
+        <v>x</v>
+      </c>
+      <c r="P188" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q188" t="str">
+        <v>x</v>
+      </c>
+      <c r="R188" t="str">
+        <v>x</v>
+      </c>
+      <c r="S188" t="str">
+        <v>x</v>
+      </c>
+      <c r="T188" t="str">
+        <v>x</v>
+      </c>
+      <c r="U188" t="str">
+        <v>x</v>
+      </c>
+      <c r="V188" t="str">
+        <v>x</v>
+      </c>
+      <c r="W188" t="str">
+        <v>x</v>
+      </c>
+      <c r="X188" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y188" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z188" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA188" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB188" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC188" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD188" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="str">
+        <v>x</v>
+      </c>
+      <c r="C189" t="str">
+        <v>x</v>
+      </c>
+      <c r="D189" t="str">
+        <v>x</v>
+      </c>
+      <c r="E189" t="str">
+        <v>x</v>
+      </c>
+      <c r="F189" t="str">
+        <v>x</v>
+      </c>
+      <c r="G189" t="str">
+        <v>x</v>
+      </c>
+      <c r="H189" t="str">
+        <v>x</v>
+      </c>
+      <c r="I189" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J189" t="str">
+        <v>x</v>
+      </c>
+      <c r="K189" t="str">
+        <v>x</v>
+      </c>
+      <c r="L189" t="str">
+        <v>x</v>
+      </c>
+      <c r="M189" t="str">
+        <v>x</v>
+      </c>
+      <c r="N189" t="str">
+        <v>x</v>
+      </c>
+      <c r="O189" t="str">
+        <v>x</v>
+      </c>
+      <c r="P189" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q189" t="str">
+        <v>x</v>
+      </c>
+      <c r="R189" t="str">
+        <v>x</v>
+      </c>
+      <c r="S189" t="str">
+        <v>x</v>
+      </c>
+      <c r="T189" t="str">
+        <v>x</v>
+      </c>
+      <c r="U189" t="str">
+        <v>x</v>
+      </c>
+      <c r="V189" t="str">
+        <v>x</v>
+      </c>
+      <c r="W189" t="str">
+        <v>x</v>
+      </c>
+      <c r="X189" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y189" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z189" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA189" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB189" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC189" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD189" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="str">
+        <v>x</v>
+      </c>
+      <c r="C190" t="str">
+        <v>x</v>
+      </c>
+      <c r="D190" t="str">
+        <v>x</v>
+      </c>
+      <c r="E190" t="str">
+        <v>x</v>
+      </c>
+      <c r="F190" t="str">
+        <v>x</v>
+      </c>
+      <c r="G190" t="str">
+        <v>x</v>
+      </c>
+      <c r="H190" t="str">
+        <v>x</v>
+      </c>
+      <c r="I190" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J190" t="str">
+        <v>x</v>
+      </c>
+      <c r="K190" t="str">
+        <v>x</v>
+      </c>
+      <c r="L190" t="str">
+        <v>x</v>
+      </c>
+      <c r="M190" t="str">
+        <v>x</v>
+      </c>
+      <c r="N190" t="str">
+        <v>x</v>
+      </c>
+      <c r="O190" t="str">
+        <v>x</v>
+      </c>
+      <c r="P190" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q190" t="str">
+        <v>x</v>
+      </c>
+      <c r="R190" t="str">
+        <v>x</v>
+      </c>
+      <c r="S190" t="str">
+        <v>x</v>
+      </c>
+      <c r="T190" t="str">
+        <v>x</v>
+      </c>
+      <c r="U190" t="str">
+        <v>x</v>
+      </c>
+      <c r="V190" t="str">
+        <v>x</v>
+      </c>
+      <c r="W190" t="str">
+        <v>x</v>
+      </c>
+      <c r="X190" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y190" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z190" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA190" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB190" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC190" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD190" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="str">
+        <v>x</v>
+      </c>
+      <c r="C191" t="str">
+        <v>x</v>
+      </c>
+      <c r="D191" t="str">
+        <v>x</v>
+      </c>
+      <c r="E191" t="str">
+        <v>x</v>
+      </c>
+      <c r="F191" t="str">
+        <v>x</v>
+      </c>
+      <c r="G191" t="str">
+        <v>x</v>
+      </c>
+      <c r="H191" t="str">
+        <v>x</v>
+      </c>
+      <c r="I191" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J191" t="str">
+        <v>x</v>
+      </c>
+      <c r="K191" t="str">
+        <v>x</v>
+      </c>
+      <c r="L191" t="str">
+        <v>x</v>
+      </c>
+      <c r="M191" t="str">
+        <v>x</v>
+      </c>
+      <c r="N191" t="str">
+        <v>x</v>
+      </c>
+      <c r="O191" t="str">
+        <v>x</v>
+      </c>
+      <c r="P191" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q191" t="str">
+        <v>x</v>
+      </c>
+      <c r="R191" t="str">
+        <v>x</v>
+      </c>
+      <c r="S191" t="str">
+        <v>x</v>
+      </c>
+      <c r="T191" t="str">
+        <v>x</v>
+      </c>
+      <c r="U191" t="str">
+        <v>x</v>
+      </c>
+      <c r="V191" t="str">
+        <v>x</v>
+      </c>
+      <c r="W191" t="str">
+        <v>x</v>
+      </c>
+      <c r="X191" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y191" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z191" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA191" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB191" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC191" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD191" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="str">
+        <v>x</v>
+      </c>
+      <c r="C192" t="str">
+        <v>x</v>
+      </c>
+      <c r="D192" t="str">
+        <v>x</v>
+      </c>
+      <c r="E192" t="str">
+        <v>x</v>
+      </c>
+      <c r="F192" t="str">
+        <v>x</v>
+      </c>
+      <c r="G192" t="str">
+        <v>x</v>
+      </c>
+      <c r="H192" t="str">
+        <v>x</v>
+      </c>
+      <c r="I192" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J192" t="str">
+        <v>x</v>
+      </c>
+      <c r="K192" t="str">
+        <v>x</v>
+      </c>
+      <c r="L192" t="str">
+        <v>x</v>
+      </c>
+      <c r="M192" t="str">
+        <v>x</v>
+      </c>
+      <c r="N192" t="str">
+        <v>x</v>
+      </c>
+      <c r="O192" t="str">
+        <v>x</v>
+      </c>
+      <c r="P192" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q192" t="str">
+        <v>x</v>
+      </c>
+      <c r="R192" t="str">
+        <v>x</v>
+      </c>
+      <c r="S192" t="str">
+        <v>x</v>
+      </c>
+      <c r="T192" t="str">
+        <v>x</v>
+      </c>
+      <c r="U192" t="str">
+        <v>x</v>
+      </c>
+      <c r="V192" t="str">
+        <v>x</v>
+      </c>
+      <c r="W192" t="str">
+        <v>x</v>
+      </c>
+      <c r="X192" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y192" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z192" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA192" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB192" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC192" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD192" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="str">
+        <v>x</v>
+      </c>
+      <c r="C193" t="str">
+        <v>x</v>
+      </c>
+      <c r="D193" t="str">
+        <v>x</v>
+      </c>
+      <c r="E193" t="str">
+        <v>x</v>
+      </c>
+      <c r="F193" t="str">
+        <v>x</v>
+      </c>
+      <c r="G193" t="str">
+        <v>x</v>
+      </c>
+      <c r="H193" t="str">
+        <v>x</v>
+      </c>
+      <c r="I193" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J193" t="str">
+        <v>x</v>
+      </c>
+      <c r="K193" t="str">
+        <v>x</v>
+      </c>
+      <c r="L193" t="str">
+        <v>x</v>
+      </c>
+      <c r="M193" t="str">
+        <v>x</v>
+      </c>
+      <c r="N193" t="str">
+        <v>x</v>
+      </c>
+      <c r="O193" t="str">
+        <v>x</v>
+      </c>
+      <c r="P193" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q193" t="str">
+        <v>x</v>
+      </c>
+      <c r="R193" t="str">
+        <v>x</v>
+      </c>
+      <c r="S193" t="str">
+        <v>x</v>
+      </c>
+      <c r="T193" t="str">
+        <v>x</v>
+      </c>
+      <c r="U193" t="str">
+        <v>x</v>
+      </c>
+      <c r="V193" t="str">
+        <v>x</v>
+      </c>
+      <c r="W193" t="str">
+        <v>x</v>
+      </c>
+      <c r="X193" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y193" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z193" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA193" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB193" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC193" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD193" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="str">
+        <v>x</v>
+      </c>
+      <c r="C194" t="str">
+        <v>x</v>
+      </c>
+      <c r="D194" t="str">
+        <v>x</v>
+      </c>
+      <c r="E194" t="str">
+        <v>x</v>
+      </c>
+      <c r="F194" t="str">
+        <v>x</v>
+      </c>
+      <c r="G194" t="str">
+        <v>x</v>
+      </c>
+      <c r="H194" t="str">
+        <v>x</v>
+      </c>
+      <c r="I194" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J194" t="str">
+        <v>x</v>
+      </c>
+      <c r="K194" t="str">
+        <v>x</v>
+      </c>
+      <c r="L194" t="str">
+        <v>x</v>
+      </c>
+      <c r="M194" t="str">
+        <v>x</v>
+      </c>
+      <c r="N194" t="str">
+        <v>x</v>
+      </c>
+      <c r="O194" t="str">
+        <v>x</v>
+      </c>
+      <c r="P194" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q194" t="str">
+        <v>x</v>
+      </c>
+      <c r="R194" t="str">
+        <v>x</v>
+      </c>
+      <c r="S194" t="str">
+        <v>x</v>
+      </c>
+      <c r="T194" t="str">
+        <v>x</v>
+      </c>
+      <c r="U194" t="str">
+        <v>x</v>
+      </c>
+      <c r="V194" t="str">
+        <v>x</v>
+      </c>
+      <c r="W194" t="str">
+        <v>x</v>
+      </c>
+      <c r="X194" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y194" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z194" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA194" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB194" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC194" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD194" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="str">
+        <v>x</v>
+      </c>
+      <c r="C195" t="str">
+        <v>x</v>
+      </c>
+      <c r="D195" t="str">
+        <v>x</v>
+      </c>
+      <c r="E195" t="str">
+        <v>x</v>
+      </c>
+      <c r="F195" t="str">
+        <v>x</v>
+      </c>
+      <c r="G195" t="str">
+        <v>x</v>
+      </c>
+      <c r="H195" t="str">
+        <v>x</v>
+      </c>
+      <c r="I195" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J195" t="str">
+        <v>x</v>
+      </c>
+      <c r="K195" t="str">
+        <v>x</v>
+      </c>
+      <c r="L195" t="str">
+        <v>x</v>
+      </c>
+      <c r="M195" t="str">
+        <v>x</v>
+      </c>
+      <c r="N195" t="str">
+        <v>x</v>
+      </c>
+      <c r="O195" t="str">
+        <v>x</v>
+      </c>
+      <c r="P195" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q195" t="str">
+        <v>x</v>
+      </c>
+      <c r="R195" t="str">
+        <v>x</v>
+      </c>
+      <c r="S195" t="str">
+        <v>x</v>
+      </c>
+      <c r="T195" t="str">
+        <v>x</v>
+      </c>
+      <c r="U195" t="str">
+        <v>x</v>
+      </c>
+      <c r="V195" t="str">
+        <v>x</v>
+      </c>
+      <c r="W195" t="str">
+        <v>x</v>
+      </c>
+      <c r="X195" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y195" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z195" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA195" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB195" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC195" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD195" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="str">
+        <v>x</v>
+      </c>
+      <c r="C196" t="str">
+        <v>x</v>
+      </c>
+      <c r="D196" t="str">
+        <v>x</v>
+      </c>
+      <c r="E196" t="str">
+        <v>x</v>
+      </c>
+      <c r="F196" t="str">
+        <v>x</v>
+      </c>
+      <c r="G196" t="str">
+        <v>x</v>
+      </c>
+      <c r="H196" t="str">
+        <v>x</v>
+      </c>
+      <c r="I196" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J196" t="str">
+        <v>x</v>
+      </c>
+      <c r="K196" t="str">
+        <v>x</v>
+      </c>
+      <c r="L196" t="str">
+        <v>x</v>
+      </c>
+      <c r="M196" t="str">
+        <v>x</v>
+      </c>
+      <c r="N196" t="str">
+        <v>x</v>
+      </c>
+      <c r="O196" t="str">
+        <v>x</v>
+      </c>
+      <c r="P196" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q196" t="str">
+        <v>x</v>
+      </c>
+      <c r="R196" t="str">
+        <v>x</v>
+      </c>
+      <c r="S196" t="str">
+        <v>x</v>
+      </c>
+      <c r="T196" t="str">
+        <v>x</v>
+      </c>
+      <c r="U196" t="str">
+        <v>x</v>
+      </c>
+      <c r="V196" t="str">
+        <v>x</v>
+      </c>
+      <c r="W196" t="str">
+        <v>x</v>
+      </c>
+      <c r="X196" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y196" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z196" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA196" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB196" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC196" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD196" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="str">
+        <v>x</v>
+      </c>
+      <c r="C197" t="str">
+        <v>x</v>
+      </c>
+      <c r="D197" t="str">
+        <v>x</v>
+      </c>
+      <c r="E197" t="str">
+        <v>x</v>
+      </c>
+      <c r="F197" t="str">
+        <v>x</v>
+      </c>
+      <c r="G197" t="str">
+        <v>x</v>
+      </c>
+      <c r="H197" t="str">
+        <v>x</v>
+      </c>
+      <c r="I197" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J197" t="str">
+        <v>x</v>
+      </c>
+      <c r="K197" t="str">
+        <v>x</v>
+      </c>
+      <c r="L197" t="str">
+        <v>x</v>
+      </c>
+      <c r="M197" t="str">
+        <v>x</v>
+      </c>
+      <c r="N197" t="str">
+        <v>x</v>
+      </c>
+      <c r="O197" t="str">
+        <v>x</v>
+      </c>
+      <c r="P197" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q197" t="str">
+        <v>x</v>
+      </c>
+      <c r="R197" t="str">
+        <v>x</v>
+      </c>
+      <c r="S197" t="str">
+        <v>x</v>
+      </c>
+      <c r="T197" t="str">
+        <v>x</v>
+      </c>
+      <c r="U197" t="str">
+        <v>x</v>
+      </c>
+      <c r="V197" t="str">
+        <v>x</v>
+      </c>
+      <c r="W197" t="str">
+        <v>x</v>
+      </c>
+      <c r="X197" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y197" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z197" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA197" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB197" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC197" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD197" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="str">
+        <v>x</v>
+      </c>
+      <c r="C198" t="str">
+        <v>x</v>
+      </c>
+      <c r="D198" t="str">
+        <v>x</v>
+      </c>
+      <c r="E198" t="str">
+        <v>x</v>
+      </c>
+      <c r="F198" t="str">
+        <v>x</v>
+      </c>
+      <c r="G198" t="str">
+        <v>x</v>
+      </c>
+      <c r="H198" t="str">
+        <v>x</v>
+      </c>
+      <c r="I198" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J198" t="str">
+        <v>x</v>
+      </c>
+      <c r="K198" t="str">
+        <v>x</v>
+      </c>
+      <c r="L198" t="str">
+        <v>x</v>
+      </c>
+      <c r="M198" t="str">
+        <v>x</v>
+      </c>
+      <c r="N198" t="str">
+        <v>x</v>
+      </c>
+      <c r="O198" t="str">
+        <v>x</v>
+      </c>
+      <c r="P198" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q198" t="str">
+        <v>x</v>
+      </c>
+      <c r="R198" t="str">
+        <v>x</v>
+      </c>
+      <c r="S198" t="str">
+        <v>x</v>
+      </c>
+      <c r="T198" t="str">
+        <v>x</v>
+      </c>
+      <c r="U198" t="str">
+        <v>x</v>
+      </c>
+      <c r="V198" t="str">
+        <v>x</v>
+      </c>
+      <c r="W198" t="str">
+        <v>x</v>
+      </c>
+      <c r="X198" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y198" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z198" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA198" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB198" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC198" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD198" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="str">
+        <v>x</v>
+      </c>
+      <c r="C199" t="str">
+        <v>x</v>
+      </c>
+      <c r="D199" t="str">
+        <v>x</v>
+      </c>
+      <c r="E199" t="str">
+        <v>x</v>
+      </c>
+      <c r="F199" t="str">
+        <v>x</v>
+      </c>
+      <c r="G199" t="str">
+        <v>x</v>
+      </c>
+      <c r="H199" t="str">
+        <v>x</v>
+      </c>
+      <c r="I199" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J199" t="str">
+        <v>x</v>
+      </c>
+      <c r="K199" t="str">
+        <v>x</v>
+      </c>
+      <c r="L199" t="str">
+        <v>x</v>
+      </c>
+      <c r="M199" t="str">
+        <v>x</v>
+      </c>
+      <c r="N199" t="str">
+        <v>x</v>
+      </c>
+      <c r="O199" t="str">
+        <v>x</v>
+      </c>
+      <c r="P199" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q199" t="str">
+        <v>x</v>
+      </c>
+      <c r="R199" t="str">
+        <v>x</v>
+      </c>
+      <c r="S199" t="str">
+        <v>x</v>
+      </c>
+      <c r="T199" t="str">
+        <v>x</v>
+      </c>
+      <c r="U199" t="str">
+        <v>x</v>
+      </c>
+      <c r="V199" t="str">
+        <v>x</v>
+      </c>
+      <c r="W199" t="str">
+        <v>x</v>
+      </c>
+      <c r="X199" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y199" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z199" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA199" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB199" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC199" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD199" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="str">
+        <v>x</v>
+      </c>
+      <c r="C200" t="str">
+        <v>x</v>
+      </c>
+      <c r="D200" t="str">
+        <v>x</v>
+      </c>
+      <c r="E200" t="str">
+        <v>x</v>
+      </c>
+      <c r="F200" t="str">
+        <v>x</v>
+      </c>
+      <c r="G200" t="str">
+        <v>x</v>
+      </c>
+      <c r="H200" t="str">
+        <v>x</v>
+      </c>
+      <c r="I200" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J200" t="str">
+        <v>x</v>
+      </c>
+      <c r="K200" t="str">
+        <v>x</v>
+      </c>
+      <c r="L200" t="str">
+        <v>x</v>
+      </c>
+      <c r="M200" t="str">
+        <v>x</v>
+      </c>
+      <c r="N200" t="str">
+        <v>x</v>
+      </c>
+      <c r="O200" t="str">
+        <v>x</v>
+      </c>
+      <c r="P200" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q200" t="str">
+        <v>x</v>
+      </c>
+      <c r="R200" t="str">
+        <v>x</v>
+      </c>
+      <c r="S200" t="str">
+        <v>x</v>
+      </c>
+      <c r="T200" t="str">
+        <v>x</v>
+      </c>
+      <c r="U200" t="str">
+        <v>x</v>
+      </c>
+      <c r="V200" t="str">
+        <v>x</v>
+      </c>
+      <c r="W200" t="str">
+        <v>x</v>
+      </c>
+      <c r="X200" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y200" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z200" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA200" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB200" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC200" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD200" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="str">
+        <v>x</v>
+      </c>
+      <c r="C201" t="str">
+        <v>x</v>
+      </c>
+      <c r="D201" t="str">
+        <v>x</v>
+      </c>
+      <c r="E201" t="str">
+        <v>x</v>
+      </c>
+      <c r="F201" t="str">
+        <v>x</v>
+      </c>
+      <c r="G201" t="str">
+        <v>x</v>
+      </c>
+      <c r="H201" t="str">
+        <v>x</v>
+      </c>
+      <c r="I201" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J201" t="str">
+        <v>x</v>
+      </c>
+      <c r="K201" t="str">
+        <v>x</v>
+      </c>
+      <c r="L201" t="str">
+        <v>x</v>
+      </c>
+      <c r="M201" t="str">
+        <v>x</v>
+      </c>
+      <c r="N201" t="str">
+        <v>x</v>
+      </c>
+      <c r="O201" t="str">
+        <v>x</v>
+      </c>
+      <c r="P201" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q201" t="str">
+        <v>x</v>
+      </c>
+      <c r="R201" t="str">
+        <v>x</v>
+      </c>
+      <c r="S201" t="str">
+        <v>x</v>
+      </c>
+      <c r="T201" t="str">
+        <v>x</v>
+      </c>
+      <c r="U201" t="str">
+        <v>x</v>
+      </c>
+      <c r="V201" t="str">
+        <v>x</v>
+      </c>
+      <c r="W201" t="str">
+        <v>x</v>
+      </c>
+      <c r="X201" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y201" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z201" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA201" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB201" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC201" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD201" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="str">
+        <v>x</v>
+      </c>
+      <c r="C202" t="str">
+        <v>x</v>
+      </c>
+      <c r="D202" t="str">
+        <v>x</v>
+      </c>
+      <c r="E202" t="str">
+        <v>x</v>
+      </c>
+      <c r="F202" t="str">
+        <v>x</v>
+      </c>
+      <c r="G202" t="str">
+        <v>x</v>
+      </c>
+      <c r="H202" t="str">
+        <v>x</v>
+      </c>
+      <c r="I202" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J202" t="str">
+        <v>x</v>
+      </c>
+      <c r="K202" t="str">
+        <v>x</v>
+      </c>
+      <c r="L202" t="str">
+        <v>x</v>
+      </c>
+      <c r="M202" t="str">
+        <v>x</v>
+      </c>
+      <c r="N202" t="str">
+        <v>x</v>
+      </c>
+      <c r="O202" t="str">
+        <v>x</v>
+      </c>
+      <c r="P202" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q202" t="str">
+        <v>x</v>
+      </c>
+      <c r="R202" t="str">
+        <v>x</v>
+      </c>
+      <c r="S202" t="str">
+        <v>x</v>
+      </c>
+      <c r="T202" t="str">
+        <v>x</v>
+      </c>
+      <c r="U202" t="str">
+        <v>x</v>
+      </c>
+      <c r="V202" t="str">
+        <v>x</v>
+      </c>
+      <c r="W202" t="str">
+        <v>x</v>
+      </c>
+      <c r="X202" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y202" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z202" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA202" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB202" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC202" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD202" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="str">
+        <v>x</v>
+      </c>
+      <c r="C203" t="str">
+        <v>x</v>
+      </c>
+      <c r="D203" t="str">
+        <v>x</v>
+      </c>
+      <c r="E203" t="str">
+        <v>x</v>
+      </c>
+      <c r="F203" t="str">
+        <v>x</v>
+      </c>
+      <c r="G203" t="str">
+        <v>x</v>
+      </c>
+      <c r="H203" t="str">
+        <v>x</v>
+      </c>
+      <c r="I203" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J203" t="str">
+        <v>x</v>
+      </c>
+      <c r="K203" t="str">
+        <v>x</v>
+      </c>
+      <c r="L203" t="str">
+        <v>x</v>
+      </c>
+      <c r="M203" t="str">
+        <v>x</v>
+      </c>
+      <c r="N203" t="str">
+        <v>x</v>
+      </c>
+      <c r="O203" t="str">
+        <v>x</v>
+      </c>
+      <c r="P203" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q203" t="str">
+        <v>x</v>
+      </c>
+      <c r="R203" t="str">
+        <v>x</v>
+      </c>
+      <c r="S203" t="str">
+        <v>x</v>
+      </c>
+      <c r="T203" t="str">
+        <v>x</v>
+      </c>
+      <c r="U203" t="str">
+        <v>x</v>
+      </c>
+      <c r="V203" t="str">
+        <v>x</v>
+      </c>
+      <c r="W203" t="str">
+        <v>x</v>
+      </c>
+      <c r="X203" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y203" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z203" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA203" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB203" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC203" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD203" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="str">
+        <v>x</v>
+      </c>
+      <c r="C204" t="str">
+        <v>x</v>
+      </c>
+      <c r="D204" t="str">
+        <v>x</v>
+      </c>
+      <c r="E204" t="str">
+        <v>x</v>
+      </c>
+      <c r="F204" t="str">
+        <v>x</v>
+      </c>
+      <c r="G204" t="str">
+        <v>x</v>
+      </c>
+      <c r="H204" t="str">
+        <v>x</v>
+      </c>
+      <c r="I204" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J204" t="str">
+        <v>x</v>
+      </c>
+      <c r="K204" t="str">
+        <v>x</v>
+      </c>
+      <c r="L204" t="str">
+        <v>x</v>
+      </c>
+      <c r="M204" t="str">
+        <v>x</v>
+      </c>
+      <c r="N204" t="str">
+        <v>x</v>
+      </c>
+      <c r="O204" t="str">
+        <v>x</v>
+      </c>
+      <c r="P204" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q204" t="str">
+        <v>x</v>
+      </c>
+      <c r="R204" t="str">
+        <v>x</v>
+      </c>
+      <c r="S204" t="str">
+        <v>x</v>
+      </c>
+      <c r="T204" t="str">
+        <v>x</v>
+      </c>
+      <c r="U204" t="str">
+        <v>x</v>
+      </c>
+      <c r="V204" t="str">
+        <v>x</v>
+      </c>
+      <c r="W204" t="str">
+        <v>x</v>
+      </c>
+      <c r="X204" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y204" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z204" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA204" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB204" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC204" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD204" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="str">
+        <v>x</v>
+      </c>
+      <c r="C205" t="str">
+        <v>x</v>
+      </c>
+      <c r="D205" t="str">
+        <v>x</v>
+      </c>
+      <c r="E205" t="str">
+        <v>x</v>
+      </c>
+      <c r="F205" t="str">
+        <v>x</v>
+      </c>
+      <c r="G205" t="str">
+        <v>x</v>
+      </c>
+      <c r="H205" t="str">
+        <v>x</v>
+      </c>
+      <c r="I205" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J205" t="str">
+        <v>x</v>
+      </c>
+      <c r="K205" t="str">
+        <v>x</v>
+      </c>
+      <c r="L205" t="str">
+        <v>x</v>
+      </c>
+      <c r="M205" t="str">
+        <v>x</v>
+      </c>
+      <c r="N205" t="str">
+        <v>x</v>
+      </c>
+      <c r="O205" t="str">
+        <v>x</v>
+      </c>
+      <c r="P205" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q205" t="str">
+        <v>x</v>
+      </c>
+      <c r="R205" t="str">
+        <v>x</v>
+      </c>
+      <c r="S205" t="str">
+        <v>x</v>
+      </c>
+      <c r="T205" t="str">
+        <v>x</v>
+      </c>
+      <c r="U205" t="str">
+        <v>x</v>
+      </c>
+      <c r="V205" t="str">
+        <v>x</v>
+      </c>
+      <c r="W205" t="str">
+        <v>x</v>
+      </c>
+      <c r="X205" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y205" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z205" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA205" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB205" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC205" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD205" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="str">
+        <v>x</v>
+      </c>
+      <c r="C206" t="str">
+        <v>x</v>
+      </c>
+      <c r="D206" t="str">
+        <v>x</v>
+      </c>
+      <c r="E206" t="str">
+        <v>x</v>
+      </c>
+      <c r="F206" t="str">
+        <v>x</v>
+      </c>
+      <c r="G206" t="str">
+        <v>x</v>
+      </c>
+      <c r="H206" t="str">
+        <v>x</v>
+      </c>
+      <c r="I206" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J206" t="str">
+        <v>x</v>
+      </c>
+      <c r="K206" t="str">
+        <v>x</v>
+      </c>
+      <c r="L206" t="str">
+        <v>x</v>
+      </c>
+      <c r="M206" t="str">
+        <v>x</v>
+      </c>
+      <c r="N206" t="str">
+        <v>x</v>
+      </c>
+      <c r="O206" t="str">
+        <v>x</v>
+      </c>
+      <c r="P206" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q206" t="str">
+        <v>x</v>
+      </c>
+      <c r="R206" t="str">
+        <v>x</v>
+      </c>
+      <c r="S206" t="str">
+        <v>x</v>
+      </c>
+      <c r="T206" t="str">
+        <v>x</v>
+      </c>
+      <c r="U206" t="str">
+        <v>x</v>
+      </c>
+      <c r="V206" t="str">
+        <v>x</v>
+      </c>
+      <c r="W206" t="str">
+        <v>x</v>
+      </c>
+      <c r="X206" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y206" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z206" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA206" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB206" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC206" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD206" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="str">
+        <v>x</v>
+      </c>
+      <c r="C207" t="str">
+        <v>x</v>
+      </c>
+      <c r="D207" t="str">
+        <v>x</v>
+      </c>
+      <c r="E207" t="str">
+        <v>x</v>
+      </c>
+      <c r="F207" t="str">
+        <v>x</v>
+      </c>
+      <c r="G207" t="str">
+        <v>x</v>
+      </c>
+      <c r="H207" t="str">
+        <v>x</v>
+      </c>
+      <c r="I207" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J207" t="str">
+        <v>x</v>
+      </c>
+      <c r="K207" t="str">
+        <v>x</v>
+      </c>
+      <c r="L207" t="str">
+        <v>x</v>
+      </c>
+      <c r="M207" t="str">
+        <v>x</v>
+      </c>
+      <c r="N207" t="str">
+        <v>x</v>
+      </c>
+      <c r="O207" t="str">
+        <v>x</v>
+      </c>
+      <c r="P207" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q207" t="str">
+        <v>x</v>
+      </c>
+      <c r="R207" t="str">
+        <v>x</v>
+      </c>
+      <c r="S207" t="str">
+        <v>x</v>
+      </c>
+      <c r="T207" t="str">
+        <v>x</v>
+      </c>
+      <c r="U207" t="str">
+        <v>x</v>
+      </c>
+      <c r="V207" t="str">
+        <v>x</v>
+      </c>
+      <c r="W207" t="str">
+        <v>x</v>
+      </c>
+      <c r="X207" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y207" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z207" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA207" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB207" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC207" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD207" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="str">
+        <v>x</v>
+      </c>
+      <c r="C208" t="str">
+        <v>x</v>
+      </c>
+      <c r="D208" t="str">
+        <v>x</v>
+      </c>
+      <c r="E208" t="str">
+        <v>x</v>
+      </c>
+      <c r="F208" t="str">
+        <v>x</v>
+      </c>
+      <c r="G208" t="str">
+        <v>x</v>
+      </c>
+      <c r="H208" t="str">
+        <v>x</v>
+      </c>
+      <c r="I208" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J208" t="str">
+        <v>x</v>
+      </c>
+      <c r="K208" t="str">
+        <v>x</v>
+      </c>
+      <c r="L208" t="str">
+        <v>x</v>
+      </c>
+      <c r="M208" t="str">
+        <v>x</v>
+      </c>
+      <c r="N208" t="str">
+        <v>x</v>
+      </c>
+      <c r="O208" t="str">
+        <v>x</v>
+      </c>
+      <c r="P208" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q208" t="str">
+        <v>x</v>
+      </c>
+      <c r="R208" t="str">
+        <v>x</v>
+      </c>
+      <c r="S208" t="str">
+        <v>x</v>
+      </c>
+      <c r="T208" t="str">
+        <v>x</v>
+      </c>
+      <c r="U208" t="str">
+        <v>x</v>
+      </c>
+      <c r="V208" t="str">
+        <v>x</v>
+      </c>
+      <c r="W208" t="str">
+        <v>x</v>
+      </c>
+      <c r="X208" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y208" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z208" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA208" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB208" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC208" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD208" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="str">
+        <v>x</v>
+      </c>
+      <c r="C209" t="str">
+        <v>x</v>
+      </c>
+      <c r="D209" t="str">
+        <v>x</v>
+      </c>
+      <c r="E209" t="str">
+        <v>x</v>
+      </c>
+      <c r="F209" t="str">
+        <v>x</v>
+      </c>
+      <c r="G209" t="str">
+        <v>x</v>
+      </c>
+      <c r="H209" t="str">
+        <v>x</v>
+      </c>
+      <c r="I209" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J209" t="str">
+        <v>x</v>
+      </c>
+      <c r="K209" t="str">
+        <v>x</v>
+      </c>
+      <c r="L209" t="str">
+        <v>x</v>
+      </c>
+      <c r="M209" t="str">
+        <v>x</v>
+      </c>
+      <c r="N209" t="str">
+        <v>x</v>
+      </c>
+      <c r="O209" t="str">
+        <v>x</v>
+      </c>
+      <c r="P209" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q209" t="str">
+        <v>x</v>
+      </c>
+      <c r="R209" t="str">
+        <v>x</v>
+      </c>
+      <c r="S209" t="str">
+        <v>x</v>
+      </c>
+      <c r="T209" t="str">
+        <v>x</v>
+      </c>
+      <c r="U209" t="str">
+        <v>x</v>
+      </c>
+      <c r="V209" t="str">
+        <v>x</v>
+      </c>
+      <c r="W209" t="str">
+        <v>x</v>
+      </c>
+      <c r="X209" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y209" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z209" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA209" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB209" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC209" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD209" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="str">
+        <v>x</v>
+      </c>
+      <c r="C210" t="str">
+        <v>x</v>
+      </c>
+      <c r="D210" t="str">
+        <v>x</v>
+      </c>
+      <c r="E210" t="str">
+        <v>x</v>
+      </c>
+      <c r="F210" t="str">
+        <v>x</v>
+      </c>
+      <c r="G210" t="str">
+        <v>x</v>
+      </c>
+      <c r="H210" t="str">
+        <v>x</v>
+      </c>
+      <c r="I210" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J210" t="str">
+        <v>x</v>
+      </c>
+      <c r="K210" t="str">
+        <v>x</v>
+      </c>
+      <c r="L210" t="str">
+        <v>x</v>
+      </c>
+      <c r="M210" t="str">
+        <v>x</v>
+      </c>
+      <c r="N210" t="str">
+        <v>x</v>
+      </c>
+      <c r="O210" t="str">
+        <v>x</v>
+      </c>
+      <c r="P210" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q210" t="str">
+        <v>x</v>
+      </c>
+      <c r="R210" t="str">
+        <v>x</v>
+      </c>
+      <c r="S210" t="str">
+        <v>x</v>
+      </c>
+      <c r="T210" t="str">
+        <v>x</v>
+      </c>
+      <c r="U210" t="str">
+        <v>x</v>
+      </c>
+      <c r="V210" t="str">
+        <v>x</v>
+      </c>
+      <c r="W210" t="str">
+        <v>x</v>
+      </c>
+      <c r="X210" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y210" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z210" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA210" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB210" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC210" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD210" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="str">
+        <v>x</v>
+      </c>
+      <c r="C211" t="str">
+        <v>x</v>
+      </c>
+      <c r="D211" t="str">
+        <v>x</v>
+      </c>
+      <c r="E211" t="str">
+        <v>x</v>
+      </c>
+      <c r="F211" t="str">
+        <v>x</v>
+      </c>
+      <c r="G211" t="str">
+        <v>x</v>
+      </c>
+      <c r="H211" t="str">
+        <v>x</v>
+      </c>
+      <c r="I211" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J211" t="str">
+        <v>x</v>
+      </c>
+      <c r="K211" t="str">
+        <v>x</v>
+      </c>
+      <c r="L211" t="str">
+        <v>x</v>
+      </c>
+      <c r="M211" t="str">
+        <v>x</v>
+      </c>
+      <c r="N211" t="str">
+        <v>x</v>
+      </c>
+      <c r="O211" t="str">
+        <v>x</v>
+      </c>
+      <c r="P211" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q211" t="str">
+        <v>x</v>
+      </c>
+      <c r="R211" t="str">
+        <v>x</v>
+      </c>
+      <c r="S211" t="str">
+        <v>x</v>
+      </c>
+      <c r="T211" t="str">
+        <v>x</v>
+      </c>
+      <c r="U211" t="str">
+        <v>x</v>
+      </c>
+      <c r="V211" t="str">
+        <v>x</v>
+      </c>
+      <c r="W211" t="str">
+        <v>x</v>
+      </c>
+      <c r="X211" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y211" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z211" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA211" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB211" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC211" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD211" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="str">
+        <v>x</v>
+      </c>
+      <c r="C212" t="str">
+        <v>x</v>
+      </c>
+      <c r="D212" t="str">
+        <v>x</v>
+      </c>
+      <c r="E212" t="str">
+        <v>x</v>
+      </c>
+      <c r="F212" t="str">
+        <v>x</v>
+      </c>
+      <c r="G212" t="str">
+        <v>x</v>
+      </c>
+      <c r="H212" t="str">
+        <v>x</v>
+      </c>
+      <c r="I212" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J212" t="str">
+        <v>x</v>
+      </c>
+      <c r="K212" t="str">
+        <v>x</v>
+      </c>
+      <c r="L212" t="str">
+        <v>x</v>
+      </c>
+      <c r="M212" t="str">
+        <v>x</v>
+      </c>
+      <c r="N212" t="str">
+        <v>x</v>
+      </c>
+      <c r="O212" t="str">
+        <v>x</v>
+      </c>
+      <c r="P212" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q212" t="str">
+        <v>x</v>
+      </c>
+      <c r="R212" t="str">
+        <v>x</v>
+      </c>
+      <c r="S212" t="str">
+        <v>x</v>
+      </c>
+      <c r="T212" t="str">
+        <v>x</v>
+      </c>
+      <c r="U212" t="str">
+        <v>x</v>
+      </c>
+      <c r="V212" t="str">
+        <v>x</v>
+      </c>
+      <c r="W212" t="str">
+        <v>x</v>
+      </c>
+      <c r="X212" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y212" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z212" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA212" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB212" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC212" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD212" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="str">
+        <v>x</v>
+      </c>
+      <c r="C213" t="str">
+        <v>x</v>
+      </c>
+      <c r="D213" t="str">
+        <v>x</v>
+      </c>
+      <c r="E213" t="str">
+        <v>x</v>
+      </c>
+      <c r="F213" t="str">
+        <v>x</v>
+      </c>
+      <c r="G213" t="str">
+        <v>x</v>
+      </c>
+      <c r="H213" t="str">
+        <v>x</v>
+      </c>
+      <c r="I213" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J213" t="str">
+        <v>x</v>
+      </c>
+      <c r="K213" t="str">
+        <v>x</v>
+      </c>
+      <c r="L213" t="str">
+        <v>x</v>
+      </c>
+      <c r="M213" t="str">
+        <v>x</v>
+      </c>
+      <c r="N213" t="str">
+        <v>x</v>
+      </c>
+      <c r="O213" t="str">
+        <v>x</v>
+      </c>
+      <c r="P213" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q213" t="str">
+        <v>x</v>
+      </c>
+      <c r="R213" t="str">
+        <v>x</v>
+      </c>
+      <c r="S213" t="str">
+        <v>x</v>
+      </c>
+      <c r="T213" t="str">
+        <v>x</v>
+      </c>
+      <c r="U213" t="str">
+        <v>x</v>
+      </c>
+      <c r="V213" t="str">
+        <v>x</v>
+      </c>
+      <c r="W213" t="str">
+        <v>x</v>
+      </c>
+      <c r="X213" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y213" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z213" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA213" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB213" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC213" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD213" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="str">
+        <v>x</v>
+      </c>
+      <c r="C214" t="str">
+        <v>x</v>
+      </c>
+      <c r="D214" t="str">
+        <v>x</v>
+      </c>
+      <c r="E214" t="str">
+        <v>x</v>
+      </c>
+      <c r="F214" t="str">
+        <v>x</v>
+      </c>
+      <c r="G214" t="str">
+        <v>x</v>
+      </c>
+      <c r="H214" t="str">
+        <v>x</v>
+      </c>
+      <c r="I214" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J214" t="str">
+        <v>x</v>
+      </c>
+      <c r="K214" t="str">
+        <v>x</v>
+      </c>
+      <c r="L214" t="str">
+        <v>x</v>
+      </c>
+      <c r="M214" t="str">
+        <v>x</v>
+      </c>
+      <c r="N214" t="str">
+        <v>x</v>
+      </c>
+      <c r="O214" t="str">
+        <v>x</v>
+      </c>
+      <c r="P214" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q214" t="str">
+        <v>x</v>
+      </c>
+      <c r="R214" t="str">
+        <v>x</v>
+      </c>
+      <c r="S214" t="str">
+        <v>x</v>
+      </c>
+      <c r="T214" t="str">
+        <v>x</v>
+      </c>
+      <c r="U214" t="str">
+        <v>x</v>
+      </c>
+      <c r="V214" t="str">
+        <v>x</v>
+      </c>
+      <c r="W214" t="str">
+        <v>x</v>
+      </c>
+      <c r="X214" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y214" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z214" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA214" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB214" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC214" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD214" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="str">
+        <v>x</v>
+      </c>
+      <c r="C215" t="str">
+        <v>x</v>
+      </c>
+      <c r="D215" t="str">
+        <v>x</v>
+      </c>
+      <c r="E215" t="str">
+        <v>x</v>
+      </c>
+      <c r="F215" t="str">
+        <v>x</v>
+      </c>
+      <c r="G215" t="str">
+        <v>x</v>
+      </c>
+      <c r="H215" t="str">
+        <v>x</v>
+      </c>
+      <c r="I215" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J215" t="str">
+        <v>x</v>
+      </c>
+      <c r="K215" t="str">
+        <v>x</v>
+      </c>
+      <c r="L215" t="str">
+        <v>x</v>
+      </c>
+      <c r="M215" t="str">
+        <v>x</v>
+      </c>
+      <c r="N215" t="str">
+        <v>x</v>
+      </c>
+      <c r="O215" t="str">
+        <v>x</v>
+      </c>
+      <c r="P215" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q215" t="str">
+        <v>x</v>
+      </c>
+      <c r="R215" t="str">
+        <v>x</v>
+      </c>
+      <c r="S215" t="str">
+        <v>x</v>
+      </c>
+      <c r="T215" t="str">
+        <v>x</v>
+      </c>
+      <c r="U215" t="str">
+        <v>x</v>
+      </c>
+      <c r="V215" t="str">
+        <v>x</v>
+      </c>
+      <c r="W215" t="str">
+        <v>x</v>
+      </c>
+      <c r="X215" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y215" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z215" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA215" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB215" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC215" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD215" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="str">
+        <v>x</v>
+      </c>
+      <c r="C216" t="str">
+        <v>x</v>
+      </c>
+      <c r="D216" t="str">
+        <v>x</v>
+      </c>
+      <c r="E216" t="str">
+        <v>x</v>
+      </c>
+      <c r="F216" t="str">
+        <v>x</v>
+      </c>
+      <c r="G216" t="str">
+        <v>x</v>
+      </c>
+      <c r="H216" t="str">
+        <v>x</v>
+      </c>
+      <c r="I216" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J216" t="str">
+        <v>x</v>
+      </c>
+      <c r="K216" t="str">
+        <v>x</v>
+      </c>
+      <c r="L216" t="str">
+        <v>x</v>
+      </c>
+      <c r="M216" t="str">
+        <v>x</v>
+      </c>
+      <c r="N216" t="str">
+        <v>x</v>
+      </c>
+      <c r="O216" t="str">
+        <v>x</v>
+      </c>
+      <c r="P216" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q216" t="str">
+        <v>x</v>
+      </c>
+      <c r="R216" t="str">
+        <v>x</v>
+      </c>
+      <c r="S216" t="str">
+        <v>x</v>
+      </c>
+      <c r="T216" t="str">
+        <v>x</v>
+      </c>
+      <c r="U216" t="str">
+        <v>x</v>
+      </c>
+      <c r="V216" t="str">
+        <v>x</v>
+      </c>
+      <c r="W216" t="str">
+        <v>x</v>
+      </c>
+      <c r="X216" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y216" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z216" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA216" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB216" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC216" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD216" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="str">
+        <v>x</v>
+      </c>
+      <c r="C217" t="str">
+        <v>x</v>
+      </c>
+      <c r="D217" t="str">
+        <v>x</v>
+      </c>
+      <c r="E217" t="str">
+        <v>x</v>
+      </c>
+      <c r="F217" t="str">
+        <v>x</v>
+      </c>
+      <c r="G217" t="str">
+        <v>x</v>
+      </c>
+      <c r="H217" t="str">
+        <v>x</v>
+      </c>
+      <c r="I217" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J217" t="str">
+        <v>x</v>
+      </c>
+      <c r="K217" t="str">
+        <v>x</v>
+      </c>
+      <c r="L217" t="str">
+        <v>x</v>
+      </c>
+      <c r="M217" t="str">
+        <v>x</v>
+      </c>
+      <c r="N217" t="str">
+        <v>x</v>
+      </c>
+      <c r="O217" t="str">
+        <v>x</v>
+      </c>
+      <c r="P217" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q217" t="str">
+        <v>x</v>
+      </c>
+      <c r="R217" t="str">
+        <v>x</v>
+      </c>
+      <c r="S217" t="str">
+        <v>x</v>
+      </c>
+      <c r="T217" t="str">
+        <v>x</v>
+      </c>
+      <c r="U217" t="str">
+        <v>x</v>
+      </c>
+      <c r="V217" t="str">
+        <v>x</v>
+      </c>
+      <c r="W217" t="str">
+        <v>x</v>
+      </c>
+      <c r="X217" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y217" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z217" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA217" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB217" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC217" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD217" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="str">
+        <v>x</v>
+      </c>
+      <c r="C218" t="str">
+        <v>x</v>
+      </c>
+      <c r="D218" t="str">
+        <v>x</v>
+      </c>
+      <c r="E218" t="str">
+        <v>x</v>
+      </c>
+      <c r="F218" t="str">
+        <v>x</v>
+      </c>
+      <c r="G218" t="str">
+        <v>x</v>
+      </c>
+      <c r="H218" t="str">
+        <v>x</v>
+      </c>
+      <c r="I218" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J218" t="str">
+        <v>x</v>
+      </c>
+      <c r="K218" t="str">
+        <v>x</v>
+      </c>
+      <c r="L218" t="str">
+        <v>x</v>
+      </c>
+      <c r="M218" t="str">
+        <v>x</v>
+      </c>
+      <c r="N218" t="str">
+        <v>x</v>
+      </c>
+      <c r="O218" t="str">
+        <v>x</v>
+      </c>
+      <c r="P218" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q218" t="str">
+        <v>x</v>
+      </c>
+      <c r="R218" t="str">
+        <v>x</v>
+      </c>
+      <c r="S218" t="str">
+        <v>x</v>
+      </c>
+      <c r="T218" t="str">
+        <v>x</v>
+      </c>
+      <c r="U218" t="str">
+        <v>x</v>
+      </c>
+      <c r="V218" t="str">
+        <v>x</v>
+      </c>
+      <c r="W218" t="str">
+        <v>x</v>
+      </c>
+      <c r="X218" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y218" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z218" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA218" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB218" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC218" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD218" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="str">
+        <v>x</v>
+      </c>
+      <c r="C219" t="str">
+        <v>x</v>
+      </c>
+      <c r="D219" t="str">
+        <v>x</v>
+      </c>
+      <c r="E219" t="str">
+        <v>x</v>
+      </c>
+      <c r="F219" t="str">
+        <v>x</v>
+      </c>
+      <c r="G219" t="str">
+        <v>x</v>
+      </c>
+      <c r="H219" t="str">
+        <v>x</v>
+      </c>
+      <c r="I219" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J219" t="str">
+        <v>x</v>
+      </c>
+      <c r="K219" t="str">
+        <v>x</v>
+      </c>
+      <c r="L219" t="str">
+        <v>x</v>
+      </c>
+      <c r="M219" t="str">
+        <v>x</v>
+      </c>
+      <c r="N219" t="str">
+        <v>x</v>
+      </c>
+      <c r="O219" t="str">
+        <v>x</v>
+      </c>
+      <c r="P219" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q219" t="str">
+        <v>x</v>
+      </c>
+      <c r="R219" t="str">
+        <v>x</v>
+      </c>
+      <c r="S219" t="str">
+        <v>x</v>
+      </c>
+      <c r="T219" t="str">
+        <v>x</v>
+      </c>
+      <c r="U219" t="str">
+        <v>x</v>
+      </c>
+      <c r="V219" t="str">
+        <v>x</v>
+      </c>
+      <c r="W219" t="str">
+        <v>x</v>
+      </c>
+      <c r="X219" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y219" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z219" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA219" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB219" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC219" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD219" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="str">
+        <v>x</v>
+      </c>
+      <c r="C220" t="str">
+        <v>x</v>
+      </c>
+      <c r="D220" t="str">
+        <v>x</v>
+      </c>
+      <c r="E220" t="str">
+        <v>x</v>
+      </c>
+      <c r="F220" t="str">
+        <v>x</v>
+      </c>
+      <c r="G220" t="str">
+        <v>x</v>
+      </c>
+      <c r="H220" t="str">
+        <v>x</v>
+      </c>
+      <c r="I220" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J220" t="str">
+        <v>x</v>
+      </c>
+      <c r="K220" t="str">
+        <v>x</v>
+      </c>
+      <c r="L220" t="str">
+        <v>x</v>
+      </c>
+      <c r="M220" t="str">
+        <v>x</v>
+      </c>
+      <c r="N220" t="str">
+        <v>x</v>
+      </c>
+      <c r="O220" t="str">
+        <v>x</v>
+      </c>
+      <c r="P220" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q220" t="str">
+        <v>x</v>
+      </c>
+      <c r="R220" t="str">
+        <v>x</v>
+      </c>
+      <c r="S220" t="str">
+        <v>x</v>
+      </c>
+      <c r="T220" t="str">
+        <v>x</v>
+      </c>
+      <c r="U220" t="str">
+        <v>x</v>
+      </c>
+      <c r="V220" t="str">
+        <v>x</v>
+      </c>
+      <c r="W220" t="str">
+        <v>x</v>
+      </c>
+      <c r="X220" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y220" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z220" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA220" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB220" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC220" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD220" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="str">
+        <v>x</v>
+      </c>
+      <c r="C221" t="str">
+        <v>x</v>
+      </c>
+      <c r="D221" t="str">
+        <v>x</v>
+      </c>
+      <c r="E221" t="str">
+        <v>x</v>
+      </c>
+      <c r="F221" t="str">
+        <v>x</v>
+      </c>
+      <c r="G221" t="str">
+        <v>x</v>
+      </c>
+      <c r="H221" t="str">
+        <v>x</v>
+      </c>
+      <c r="I221" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J221" t="str">
+        <v>x</v>
+      </c>
+      <c r="K221" t="str">
+        <v>x</v>
+      </c>
+      <c r="L221" t="str">
+        <v>x</v>
+      </c>
+      <c r="M221" t="str">
+        <v>x</v>
+      </c>
+      <c r="N221" t="str">
+        <v>x</v>
+      </c>
+      <c r="O221" t="str">
+        <v>x</v>
+      </c>
+      <c r="P221" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q221" t="str">
+        <v>x</v>
+      </c>
+      <c r="R221" t="str">
+        <v>x</v>
+      </c>
+      <c r="S221" t="str">
+        <v>x</v>
+      </c>
+      <c r="T221" t="str">
+        <v>x</v>
+      </c>
+      <c r="U221" t="str">
+        <v>x</v>
+      </c>
+      <c r="V221" t="str">
+        <v>x</v>
+      </c>
+      <c r="W221" t="str">
+        <v>x</v>
+      </c>
+      <c r="X221" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y221" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z221" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA221" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB221" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC221" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD221" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="str">
+        <v>x</v>
+      </c>
+      <c r="C222" t="str">
+        <v>x</v>
+      </c>
+      <c r="D222" t="str">
+        <v>x</v>
+      </c>
+      <c r="E222" t="str">
+        <v>x</v>
+      </c>
+      <c r="F222" t="str">
+        <v>x</v>
+      </c>
+      <c r="G222" t="str">
+        <v>x</v>
+      </c>
+      <c r="H222" t="str">
+        <v>x</v>
+      </c>
+      <c r="I222" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J222" t="str">
+        <v>x</v>
+      </c>
+      <c r="K222" t="str">
+        <v>x</v>
+      </c>
+      <c r="L222" t="str">
+        <v>x</v>
+      </c>
+      <c r="M222" t="str">
+        <v>x</v>
+      </c>
+      <c r="N222" t="str">
+        <v>x</v>
+      </c>
+      <c r="O222" t="str">
+        <v>x</v>
+      </c>
+      <c r="P222" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q222" t="str">
+        <v>x</v>
+      </c>
+      <c r="R222" t="str">
+        <v>x</v>
+      </c>
+      <c r="S222" t="str">
+        <v>x</v>
+      </c>
+      <c r="T222" t="str">
+        <v>x</v>
+      </c>
+      <c r="U222" t="str">
+        <v>x</v>
+      </c>
+      <c r="V222" t="str">
+        <v>x</v>
+      </c>
+      <c r="W222" t="str">
+        <v>x</v>
+      </c>
+      <c r="X222" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y222" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z222" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA222" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB222" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC222" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD222" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="str">
+        <v>x</v>
+      </c>
+      <c r="C223" t="str">
+        <v>x</v>
+      </c>
+      <c r="D223" t="str">
+        <v>x</v>
+      </c>
+      <c r="E223" t="str">
+        <v>x</v>
+      </c>
+      <c r="F223" t="str">
+        <v>x</v>
+      </c>
+      <c r="G223" t="str">
+        <v>x</v>
+      </c>
+      <c r="H223" t="str">
+        <v>x</v>
+      </c>
+      <c r="I223" t="str">
+        <v>dd-mm-yyyy</v>
+      </c>
+      <c r="J223" t="str">
+        <v>x</v>
+      </c>
+      <c r="K223" t="str">
+        <v>x</v>
+      </c>
+      <c r="L223" t="str">
+        <v>x</v>
+      </c>
+      <c r="M223" t="str">
+        <v>x</v>
+      </c>
+      <c r="N223" t="str">
+        <v>x</v>
+      </c>
+      <c r="O223" t="str">
+        <v>x</v>
+      </c>
+      <c r="P223" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q223" t="str">
+        <v>x</v>
+      </c>
+      <c r="R223" t="str">
+        <v>x</v>
+      </c>
+      <c r="S223" t="str">
+        <v>x</v>
+      </c>
+      <c r="T223" t="str">
+        <v>x</v>
+      </c>
+      <c r="U223" t="str">
+        <v>x</v>
+      </c>
+      <c r="V223" t="str">
+        <v>x</v>
+      </c>
+      <c r="W223" t="str">
+        <v>x</v>
+      </c>
+      <c r="X223" t="str">
+        <v>x</v>
+      </c>
+      <c r="Y223" t="str">
+        <v>x</v>
+      </c>
+      <c r="Z223" t="str">
+        <v>x</v>
+      </c>
+      <c r="AA223" t="str">
+        <v>x</v>
+      </c>
+      <c r="AB223" t="str">
+        <v>x</v>
+      </c>
+      <c r="AC223" t="str">
+        <v>x</v>
+      </c>
+      <c r="AD223" t="str">
         <v>x</v>
       </c>
     </row>
